--- a/wwwroot/files/1957.xlsx
+++ b/wwwroot/files/1957.xlsx
@@ -3,136 +3,130 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asker\Documents\Ракета\Проекты\НИИТ\ИСПУМ-530\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6B3288-F373-4E89-B13C-07203F345890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="407">
-  <si>
-    <t>АС-DC преобразователь AME30-24SMAZ</t>
-  </si>
-  <si>
-    <t>ADG451BRUZ</t>
-  </si>
-  <si>
-    <t>AD8614ARTZ</t>
-  </si>
-  <si>
-    <t>AD9945KCP</t>
-  </si>
-  <si>
-    <t>ICX429ALL</t>
-  </si>
-  <si>
-    <t>ICX429AKL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="408">
+  <si>
+    <t xml:space="preserve">АС-DC преобразователь AME30-24SMAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADG451BRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD8614ARTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD9945KCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICX429ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICX429AKL</t>
   </si>
   <si>
     <t xml:space="preserve">MC78L15ABD </t>
   </si>
   <si>
-    <t>74ACT04MTC</t>
-  </si>
-  <si>
-    <t>ADV7127KRUZ140</t>
-  </si>
-  <si>
-    <t>AD8051ARTZ</t>
-  </si>
-  <si>
-    <t>ATSAM4S16CA-AU</t>
-  </si>
-  <si>
-    <t>EPCS4SI8N</t>
-  </si>
-  <si>
-    <t>EP3C10E144I7N</t>
-  </si>
-  <si>
-    <t>FM24CL16B-G</t>
-  </si>
-  <si>
-    <t>FM25W256-GTR</t>
-  </si>
-  <si>
-    <t>LTC3407AEDD</t>
-  </si>
-  <si>
-    <t>LT3502AEDC</t>
-  </si>
-  <si>
-    <t>LTC3250ES6-1.2</t>
-  </si>
-  <si>
-    <t>LTC3560IS6</t>
+    <t xml:space="preserve">74ACT04MTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADV7127KRUZ140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD8051ARTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATSAM4S16CA-AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPCS4SI8N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP3C10E144I7N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM24CL16B-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM25W256-GTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC3407AEDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT3502AEDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC3250ES6-1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC3560IS6</t>
   </si>
   <si>
     <t xml:space="preserve">MAX3362EKA-T </t>
   </si>
   <si>
-    <t>ADM202EARN</t>
-  </si>
-  <si>
-    <t>SPX1117M3-L-3-3</t>
-  </si>
-  <si>
-    <t>20IMX4-05-8K</t>
-  </si>
-  <si>
-    <t>ADM708SARZ</t>
-  </si>
-  <si>
-    <t>ADM708AR</t>
-  </si>
-  <si>
-    <t>AD8115ASTZ</t>
-  </si>
-  <si>
-    <t>AT89S8253-24AU</t>
-  </si>
-  <si>
-    <t>ADV7171KSZ</t>
+    <t xml:space="preserve">ADM202EARN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPX1117M3-L-3-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20IMX4-05-8K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM708SARZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM708AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD8115ASTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT89S8253-24AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADV7171KSZ</t>
   </si>
   <si>
     <t xml:space="preserve">AS6C8008-55ZIN </t>
   </si>
   <si>
-    <t>EP1C12Q240I7N</t>
-  </si>
-  <si>
-    <t>CHB50-24S05</t>
-  </si>
-  <si>
-    <t>DS1307Z</t>
-  </si>
-  <si>
-    <t>AD5621AKSZ</t>
-  </si>
-  <si>
-    <t>AD8041ARZ</t>
-  </si>
-  <si>
-    <t>AD7276AUJZ</t>
-  </si>
-  <si>
-    <t>AD9214BRS-105</t>
+    <t xml:space="preserve">EP1C12Q240I7N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHB50-24S05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS1307Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD5621AKSZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD8041ARZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD7276AUJZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD9214BRS-105</t>
   </si>
   <si>
     <t xml:space="preserve">ADV212BBCZ-115 </t>
@@ -141,13 +135,13 @@
     <t xml:space="preserve">ADM3101EARQZ </t>
   </si>
   <si>
-    <t>AS7C316098А-10TIN</t>
-  </si>
-  <si>
-    <t>EP3C16Q240C8N</t>
-  </si>
-  <si>
-    <t>H11L1MV</t>
+    <t xml:space="preserve">AS7C316098А-10TIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP3C16Q240C8N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H11L1MV</t>
   </si>
   <si>
     <t xml:space="preserve">SAA7113H </t>
@@ -156,19 +150,19 @@
     <t xml:space="preserve">Диод Шоттки PMEG4005AEA </t>
   </si>
   <si>
-    <t>Диод Шоттки 10BQ040</t>
-  </si>
-  <si>
-    <t>Диод Шоттки 30BQ040</t>
-  </si>
-  <si>
-    <t>Диодная сборка BAV99(SOT23)</t>
-  </si>
-  <si>
-    <t>Индикатор единичный LA03W/G</t>
-  </si>
-  <si>
-    <t>Диод BAT46WJ</t>
+    <t xml:space="preserve">Диод Шоттки 10BQ040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Диод Шоттки 30BQ040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Диодная сборка BAV99(SOT23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Индикатор единичный LA03W/G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Диод BAT46WJ</t>
   </si>
   <si>
     <t xml:space="preserve">Дроссель CM32-1R0K </t>
@@ -177,461 +171,461 @@
     <t xml:space="preserve">Дроссель B82442A1103K000 </t>
   </si>
   <si>
-    <t>Дроссель LQH32CN4R7M23</t>
-  </si>
-  <si>
-    <t>Дроссель HC9-100R (10 мкГн)</t>
-  </si>
-  <si>
-    <t>Дроссель СDRH8D43NP-4R7N</t>
-  </si>
-  <si>
-    <t>Транзистор RJK0651 DPB</t>
+    <t xml:space="preserve">Дроссель LQH32CN4R7M23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дроссель HC9-100R (10 мкГн)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дроссель СDRH8D43NP-4R7N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Транзистор RJK0651 DPB</t>
   </si>
   <si>
     <t xml:space="preserve">0402-X7R-16В-0,1 мкФ±10% </t>
   </si>
   <si>
-    <t>0402-X5R-10B-0,1 мкф</t>
-  </si>
-  <si>
-    <t>0603-COG-50B-5,1 пф</t>
-  </si>
-  <si>
-    <t>0603-COG-50B-20 пф</t>
-  </si>
-  <si>
-    <t>0603-X7R-16B-220 пф</t>
-  </si>
-  <si>
-    <t>0603-COG-50B-680 пф</t>
-  </si>
-  <si>
-    <t>0603-COG-50B-6800 пф</t>
-  </si>
-  <si>
-    <t>0603-X7R-16B-6800 пф</t>
-  </si>
-  <si>
-    <t>0603-X7R-50B-0,01 мкф</t>
-  </si>
-  <si>
-    <t>0603-X7R-16B-0,1 мкф</t>
-  </si>
-  <si>
-    <t>0603-X7R-10B-1 мкф</t>
-  </si>
-  <si>
-    <t>0603-X7R-16B-1 мкф</t>
-  </si>
-  <si>
-    <t>0805-X7R-25B-0,15 мкФ</t>
-  </si>
-  <si>
-    <t>0805-X7R-50B-0,15 мкФ</t>
-  </si>
-  <si>
-    <t>0805-X7R-16B-2,2 мкФ</t>
-  </si>
-  <si>
-    <t>0805-X7R-16B-10 мкФ</t>
-  </si>
-  <si>
-    <t>1206-X7R-200B-0,022 мкф</t>
-  </si>
-  <si>
-    <t>1210-X7R-16B-10 мкф</t>
-  </si>
-  <si>
-    <t>1210-X7R-50B-10 мкФ</t>
-  </si>
-  <si>
-    <t>1812-Y5V-25B-22 мкф</t>
-  </si>
-  <si>
-    <t>СС0805-X7R-25В-0,47 мкФ-10%</t>
-  </si>
-  <si>
-    <t>СС0805-X7R-50В-0,1 мкФ-10%</t>
-  </si>
-  <si>
-    <t>CC0805-X7R-50В-0,022мкФ±10%</t>
-  </si>
-  <si>
-    <t>CC0805-X7R-50 В-0,01 мкФ±10%</t>
+    <t xml:space="preserve">0402-X5R-10B-0,1 мкф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-COG-50B-5,1 пф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-COG-50B-20 пф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-X7R-16B-220 пф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-COG-50B-680 пф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-COG-50B-6800 пф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-X7R-16B-6800 пф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-X7R-50B-0,01 мкф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-X7R-16B-0,1 мкф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-X7R-10B-1 мкф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-X7R-16B-1 мкф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-X7R-25B-0,15 мкФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-X7R-50B-0,15 мкФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-X7R-16B-2,2 мкФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-X7R-16B-10 мкФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206-X7R-200B-0,022 мкф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1210-X7R-16B-10 мкф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1210-X7R-50B-10 мкФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1812-Y5V-25B-22 мкф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СС0805-X7R-25В-0,47 мкФ-10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СС0805-X7R-50В-0,1 мкФ-10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0805-X7R-50В-0,022мкФ±10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0805-X7R-50 В-0,01 мкФ±10%</t>
   </si>
   <si>
     <t xml:space="preserve">CC1206-X7R-100В-0,1мкФ±10% </t>
   </si>
   <si>
-    <t>СС1210-X7R-63В-10 мкФ-10%</t>
+    <t xml:space="preserve">СС1210-X7R-63В-10 мкФ-10%</t>
   </si>
   <si>
     <t xml:space="preserve">0603-5,1 Ом±5% </t>
   </si>
   <si>
-    <t>0603-15 Ом±5%</t>
-  </si>
-  <si>
-    <t>0603-33 Ом±5%</t>
-  </si>
-  <si>
-    <t>0603-75 Ом±5%</t>
-  </si>
-  <si>
-    <t>0603-130 Ом±1%</t>
-  </si>
-  <si>
-    <t>0603-300 Ом±5%</t>
-  </si>
-  <si>
-    <t>0603-510 Ом±1%</t>
-  </si>
-  <si>
-    <t>0603-1 кОм±1%</t>
-  </si>
-  <si>
-    <t>0603-1 кОм±5%</t>
-  </si>
-  <si>
-    <t>0603-1,5 кОм±5%</t>
-  </si>
-  <si>
-    <t>0603-2 кОм±1%</t>
-  </si>
-  <si>
-    <t>0603-3 кОм±5%</t>
-  </si>
-  <si>
-    <t>0603-5,1 кОм±1%</t>
-  </si>
-  <si>
-    <t>0603-5,1 кОм±5%</t>
-  </si>
-  <si>
-    <t>0603-6,8кОм±5%</t>
-  </si>
-  <si>
-    <t>0603-9,1 кОм±1%</t>
-  </si>
-  <si>
-    <t>0603-10 кОм±1%</t>
-  </si>
-  <si>
-    <t>0603-10 кОм±5%</t>
-  </si>
-  <si>
-    <t>0603-30 кОм±1%</t>
-  </si>
-  <si>
-    <t>0603-47 кОм±1%</t>
-  </si>
-  <si>
-    <t>0603-82 кОм±5%</t>
-  </si>
-  <si>
-    <t>0603-1 МОм±5%</t>
-  </si>
-  <si>
-    <t>0805-18 Ом±1%</t>
-  </si>
-  <si>
-    <t>0805-56 Ом±1%</t>
-  </si>
-  <si>
-    <t>0805-75 Ом±1%</t>
-  </si>
-  <si>
-    <t>0805-150 Ом±1%</t>
-  </si>
-  <si>
-    <t>0805-150 Ом±5%</t>
-  </si>
-  <si>
-    <t>0805-360 Ом±5%</t>
-  </si>
-  <si>
-    <t>0805-560 Ом±1%</t>
-  </si>
-  <si>
-    <t>0805-2 кОм±1%</t>
-  </si>
-  <si>
-    <t>0805-3 кОм±1%</t>
-  </si>
-  <si>
-    <t>0805-3 кОм±5%</t>
-  </si>
-  <si>
-    <t>0805-5,1 кОм±1%</t>
-  </si>
-  <si>
-    <t>0805-5,1 кОм±5%</t>
-  </si>
-  <si>
-    <t>0805-5,6 кОм±1%</t>
-  </si>
-  <si>
-    <t>0805-10 кОм±5%</t>
-  </si>
-  <si>
-    <t>0805-15 кОм±1%</t>
-  </si>
-  <si>
-    <t>0805-20 кОм±5%</t>
-  </si>
-  <si>
-    <t>0805-47 кОм±1%</t>
-  </si>
-  <si>
-    <t>1206-240 Ом±5%</t>
-  </si>
-  <si>
-    <t>1206-200 кОм±5%</t>
-  </si>
-  <si>
-    <t>3224W-1-204E Top Adjust (200кОм)</t>
-  </si>
-  <si>
-    <t>3224W-1-104E Top Adjust (100кОм)</t>
-  </si>
-  <si>
-    <t>PMR18EZPFV3L00</t>
-  </si>
-  <si>
-    <t>PMR18EZPFV4L00</t>
-  </si>
-  <si>
-    <t>FC4L64 R050 FER</t>
-  </si>
-  <si>
-    <t>1206-10 кОм±5%</t>
-  </si>
-  <si>
-    <t>1206-75 Ом±5%</t>
-  </si>
-  <si>
-    <t>0805-33 Ом±5%</t>
-  </si>
-  <si>
-    <t>0805-390 Ом±5%</t>
-  </si>
-  <si>
-    <t>0805-10 кОм±1%</t>
-  </si>
-  <si>
-    <t>Вилка ВН-10-G</t>
-  </si>
-  <si>
-    <t>Розетка PHU-3</t>
-  </si>
-  <si>
-    <t>Розетка 163-156N-I-E</t>
-  </si>
-  <si>
-    <t>Розетка ТС0-173977-4</t>
-  </si>
-  <si>
-    <t>Розетка МХ-51021-0400</t>
-  </si>
-  <si>
-    <t>Розетка PHD10H-H</t>
-  </si>
-  <si>
-    <t>Розетка VHR-2N</t>
-  </si>
-  <si>
-    <t>Розетка VHR-4N</t>
-  </si>
-  <si>
-    <t>Контакт KLS1-XA1-2.00-T</t>
-  </si>
-  <si>
-    <t>Вилка PWL2-02</t>
-  </si>
-  <si>
-    <t>Вилка PWL2-04</t>
-  </si>
-  <si>
-    <t>Сборка кабельная (Molex Ltd 15134-0403)</t>
-  </si>
-  <si>
-    <t>Вилка 0-0292161-4(43-856-21 ELFA)</t>
-  </si>
-  <si>
-    <t>Вилка MOLEX 53047-0410 (с контактами)</t>
-  </si>
-  <si>
-    <t>Вилка DIN 41 612C/2-64M   № 09 03 164 6921</t>
-  </si>
-  <si>
-    <t>Розетка DIN 41 612C            № 09 03 296 6825</t>
-  </si>
-  <si>
-    <t>Розетка DIN 41 612Н            № 09 06 215 2890</t>
-  </si>
-  <si>
-    <t>Вилка PW10-6-M</t>
-  </si>
-  <si>
-    <t>Гнезда на плату BLR-1-025-Z</t>
-  </si>
-  <si>
-    <t>Штыри на плату SLR-1-050-G</t>
-  </si>
-  <si>
-    <t>Клемник DG300-7.5-02P-12</t>
-  </si>
-  <si>
-    <t>Контакты 0500588000 Molex</t>
-  </si>
-  <si>
-    <t>SG8002DC-11.0592M PTB</t>
-  </si>
-  <si>
-    <t>SG8002JF-15.0000M-PCB</t>
-  </si>
-  <si>
-    <t>SG8002JF-22.1184M-PCB</t>
-  </si>
-  <si>
-    <t>SG8002JF-24.5760M-PCB</t>
-  </si>
-  <si>
-    <t>SG8002JF-108.0000M-PCB</t>
-  </si>
-  <si>
-    <t>SG8002JF-113.5000M-PCB</t>
-  </si>
-  <si>
-    <t>SG8002JF-120.0000M-PCB</t>
+    <t xml:space="preserve">0603-15 Ом±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-33 Ом±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-75 Ом±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-130 Ом±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-300 Ом±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-510 Ом±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-1 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-1 кОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-1,5 кОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-2 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-3 кОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-5,1 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-5,1 кОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-6,8кОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-9,1 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-10 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-10 кОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-30 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-47 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-82 кОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603-1 МОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-18 Ом±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-56 Ом±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-75 Ом±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-150 Ом±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-150 Ом±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-360 Ом±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-560 Ом±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-2 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-3 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-3 кОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-5,1 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-5,1 кОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-5,6 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-10 кОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-15 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-20 кОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-47 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206-240 Ом±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206-200 кОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3224W-1-204E Top Adjust (200кОм)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3224W-1-104E Top Adjust (100кОм)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMR18EZPFV3L00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMR18EZPFV4L00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC4L64 R050 FER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206-10 кОм±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206-75 Ом±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-33 Ом±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-390 Ом±5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805-10 кОм±1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вилка ВН-10-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розетка PHU-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розетка 163-156N-I-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розетка ТС0-173977-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розетка МХ-51021-0400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розетка PHD10H-H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розетка VHR-2N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розетка VHR-4N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контакт KLS1-XA1-2.00-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вилка PWL2-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вилка PWL2-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сборка кабельная (Molex Ltd 15134-0403)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вилка 0-0292161-4(43-856-21 ELFA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вилка MOLEX 53047-0410 (с контактами)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вилка DIN 41 612C/2-64M   № 09 03 164 6921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розетка DIN 41 612C            № 09 03 296 6825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розетка DIN 41 612Н            № 09 06 215 2890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вилка PW10-6-M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гнезда на плату BLR-1-025-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Штыри на плату SLR-1-050-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клемник DG300-7.5-02P-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контакты 0500588000 Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG8002DC-11.0592M PTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG8002JF-15.0000M-PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG8002JF-22.1184M-PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG8002JF-24.5760M-PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG8002JF-108.0000M-PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG8002JF-113.5000M-PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG8002JF-120.0000M-PCB</t>
   </si>
   <si>
     <t xml:space="preserve">Резонатор кварцевый DT-38 32.768kHz </t>
   </si>
   <si>
-    <t>Розетка 5058-03 Molex</t>
-  </si>
-  <si>
-    <t>Розетка 5195-02 Molex</t>
-  </si>
-  <si>
-    <t>Контакт 2478 Molex</t>
-  </si>
-  <si>
-    <t>Контакт 5194 (08-70-1030) Molex</t>
-  </si>
-  <si>
-    <t>Кол-во для испытаний, шт.</t>
-  </si>
-  <si>
-    <t>Кол-во в одном изделии, шт.</t>
+    <t xml:space="preserve">Розетка 5058-03 Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розетка 5195-02 Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контакт 2478 Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контакт 5194 (08-70-1030) Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кол-во для испытаний, шт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кол-во в одном изделии, шт.</t>
   </si>
   <si>
     <t xml:space="preserve"> Кол-во 
 в двух изделиях, шт.</t>
   </si>
   <si>
-    <t>1210-X5R-35В-10 мкФ 
+    <t xml:space="preserve">1210-X5R-35В-10 мкФ 
 (10uF-1210-X7R-35V-10%)</t>
   </si>
   <si>
-    <t>Контакт SVH-21T-P1.1 
+    <t xml:space="preserve">Контакт SVH-21T-P1.1 
 для розеток VHR-2N и VHR-4N</t>
   </si>
   <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Производитель</t>
-  </si>
-  <si>
-    <t>Кол-во</t>
-  </si>
-  <si>
-    <t>Цена руб. за 1 шт. с НДС</t>
-  </si>
-  <si>
-    <t>Срок поставки</t>
-  </si>
-  <si>
-    <t>Комментарии</t>
-  </si>
-  <si>
-    <t>AME30-24SMAZ</t>
-  </si>
-  <si>
-    <t>AIMTEC</t>
-  </si>
-  <si>
-    <t>2-3 недели</t>
-  </si>
-  <si>
-    <t>CXD1267AN</t>
-  </si>
-  <si>
-    <t>onsemi</t>
-  </si>
-  <si>
-    <t>6-8 недель</t>
-  </si>
-  <si>
-    <t>Infineon Technologies</t>
-  </si>
-  <si>
-    <t>MaxLinear</t>
-  </si>
-  <si>
-    <t>Alliance Memory</t>
-  </si>
-  <si>
-    <t>Cincon Electronics</t>
-  </si>
-  <si>
-    <t>Maxim</t>
-  </si>
-  <si>
-    <t>AS7C316098A-10TIN</t>
-  </si>
-  <si>
-    <t>H11L1M</t>
+    <t xml:space="preserve">№</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кол-во</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена руб. за 1 шт. с НДС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок поставки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комментарии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AME30-24SMAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIMTEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-3 недели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXD1267AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onsemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-8 недель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infineon Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxLinear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cincon Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS7C316098A-10TIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H11L1M</t>
   </si>
   <si>
     <t xml:space="preserve">PMEG4005AEA </t>
   </si>
   <si>
-    <t>10BQ040</t>
-  </si>
-  <si>
-    <t>30BQ040</t>
-  </si>
-  <si>
-    <t>B82442A1103K000</t>
-  </si>
-  <si>
-    <t>LQH32CN4R7M23</t>
-  </si>
-  <si>
-    <t>Nexperia</t>
-  </si>
-  <si>
-    <t>SMC Diode Solutions</t>
-  </si>
-  <si>
-    <t>BAV99</t>
-  </si>
-  <si>
-    <t>LA03W/G</t>
-  </si>
-  <si>
-    <t>Brown Bear</t>
+    <t xml:space="preserve">10BQ040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30BQ040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B82442A1103K000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQH32CN4R7M23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexperia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMC Diode Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAV99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA03W/G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Bear</t>
   </si>
   <si>
     <r>
-      <t>BAT46WJ</t>
+      <t xml:space="preserve">BAT46WJ</t>
     </r>
     <r>
       <rPr>
@@ -642,21 +636,21 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.115</t>
+      <t xml:space="preserve">.115</t>
     </r>
   </si>
   <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>Murata</t>
+    <t xml:space="preserve">TDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murata</t>
   </si>
   <si>
     <t xml:space="preserve">Eaton Bussmann	</t>
   </si>
   <si>
     <r>
-      <t>CDRH8D43NP-4R7N</t>
+      <t xml:space="preserve">CDRH8D43NP-4R7N</t>
     </r>
     <r>
       <rPr>
@@ -667,18 +661,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>C</t>
+      <t xml:space="preserve">C</t>
     </r>
   </si>
   <si>
-    <t>Sumida</t>
-  </si>
-  <si>
-    <t>Renesas Electronics</t>
+    <t xml:space="preserve">Sumida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renesas Electronics</t>
   </si>
   <si>
     <r>
-      <t>RJK0651DPB</t>
+      <t xml:space="preserve">RJK0651DPB</t>
     </r>
     <r>
       <rPr>
@@ -689,438 +683,438 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-00#J5</t>
+      <t xml:space="preserve">-00#J5</t>
     </r>
   </si>
   <si>
-    <t>GRM152R61A104KE19D</t>
-  </si>
-  <si>
-    <t>C0603C519K5GACTU</t>
-  </si>
-  <si>
-    <t>KEMET</t>
-  </si>
-  <si>
-    <t>C0603C200K5GACTU</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R7BB221</t>
-  </si>
-  <si>
-    <t>YAGEO</t>
-  </si>
-  <si>
-    <t>C0603C681K5GAC7867</t>
-  </si>
-  <si>
-    <t>C0603C682K5GEC7867</t>
-  </si>
-  <si>
-    <t>C0603C682K4RACTU</t>
-  </si>
-  <si>
-    <t>GCD188R71H103KA01D</t>
-  </si>
-  <si>
-    <t>GCM188R71C104KA37D</t>
-  </si>
-  <si>
-    <t>GRM188R71A105KA61D</t>
-  </si>
-  <si>
-    <t>GRM188R71C105KE15D</t>
-  </si>
-  <si>
-    <t>GRM21BR71E154KA01L</t>
-  </si>
-  <si>
-    <t>GRM21BR71H154KA01L</t>
-  </si>
-  <si>
-    <t>GCJ21BR71C225KA13L</t>
-  </si>
-  <si>
-    <t>CL21B106KOQNNNF</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>CC1206KKX7RABB223</t>
-  </si>
-  <si>
-    <t>GRM32DR71C106KA01K</t>
-  </si>
-  <si>
-    <t>GRM32ER6YA106KA12L</t>
-  </si>
-  <si>
-    <t>GRM32ER71H106KA12L</t>
-  </si>
-  <si>
-    <t>CC0805KKX7R8BB474</t>
-  </si>
-  <si>
-    <t>CC0805KRX7R9BB104</t>
-  </si>
-  <si>
-    <t>CC0805KRX7R9BB223</t>
-  </si>
-  <si>
-    <t>CC0805KRX7R9BB103</t>
-  </si>
-  <si>
-    <t>CC1206KKX7R0BB104</t>
-  </si>
-  <si>
-    <t>GRM32ER71J106KA12L</t>
-  </si>
-  <si>
-    <t>RC0603JR-075R1L</t>
-  </si>
-  <si>
-    <t>RC0603JR-0715RL</t>
-  </si>
-  <si>
-    <t>RC0603JR-0733RL</t>
-  </si>
-  <si>
-    <t>RC0603JR-0775RL</t>
-  </si>
-  <si>
-    <t>RC0603JR-07300RL</t>
-  </si>
-  <si>
-    <t>RC0603FR-07130R</t>
-  </si>
-  <si>
-    <t>RC0603FR-07510RL</t>
-  </si>
-  <si>
-    <t>RC0603FR-071KL</t>
-  </si>
-  <si>
-    <t>RC0603JR-071KL</t>
-  </si>
-  <si>
-    <t>RC0603JR-071K5L</t>
-  </si>
-  <si>
-    <t>RC0603FR-072KL</t>
-  </si>
-  <si>
-    <t>RC0603JR-073KL</t>
-  </si>
-  <si>
-    <t>RC0603FR-075K1L</t>
-  </si>
-  <si>
-    <t>RC0603JR-075K1L</t>
-  </si>
-  <si>
-    <t>RC0805JR-075K1L</t>
-  </si>
-  <si>
-    <t>RC0603JR-076K8L</t>
-  </si>
-  <si>
-    <t>RC0603FR-079K1L</t>
-  </si>
-  <si>
-    <t>RC0603FR-0710KL</t>
+    <t xml:space="preserve">GRM152R61A104KE19D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C519K5GACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEMET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C200K5GACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603KRX7R7BB221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAGEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C681K5GAC7867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C682K5GEC7867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C682K4RACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCD188R71H103KA01D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCM188R71C104KA37D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM188R71A105KA61D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM188R71C105KE15D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM21BR71E154KA01L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM21BR71H154KA01L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCJ21BR71C225KA13L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL21B106KOQNNNF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC1206KKX7RABB223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM32DR71C106KA01K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM32ER6YA106KA12L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM32ER71H106KA12L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0805KKX7R8BB474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0805KRX7R9BB104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0805KRX7R9BB223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0805KRX7R9BB103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC1206KKX7R0BB104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM32ER71J106KA12L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-075R1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-0715RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-0733RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-0775RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-07300RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-07130R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-07510RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-071KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-071K5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-072KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-073KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-075K1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-075K1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805JR-075K1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-076K8L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-079K1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-0710KL</t>
   </si>
   <si>
     <t xml:space="preserve">	RC0603JR-0710KL</t>
   </si>
   <si>
-    <t>RC0805JR-0710KL</t>
-  </si>
-  <si>
-    <t>RC0603FR-0730KL</t>
-  </si>
-  <si>
-    <t>RC0603FR-0747KL</t>
-  </si>
-  <si>
-    <t>RC0805FR-0747KL</t>
-  </si>
-  <si>
-    <t>RC0603JR-0782KL</t>
-  </si>
-  <si>
-    <t>RC0603JR-071ML</t>
-  </si>
-  <si>
-    <t>RC0805FR-0718RL</t>
-  </si>
-  <si>
-    <t>RC0805FR-0756RL</t>
-  </si>
-  <si>
-    <t>RC0805FR-0775RL</t>
-  </si>
-  <si>
-    <t>RC0805FR-07150RL</t>
-  </si>
-  <si>
-    <t>RC0805JR-07150RL</t>
-  </si>
-  <si>
-    <t>RC0805JR-07360RL</t>
-  </si>
-  <si>
-    <t>RC0805FR-07560RL</t>
-  </si>
-  <si>
-    <t>RC0805FR-072KL</t>
-  </si>
-  <si>
-    <t>RC0805JR-073KL</t>
-  </si>
-  <si>
-    <t>RC0805FR-073KL</t>
-  </si>
-  <si>
-    <t>RC0805FR-075K1L</t>
-  </si>
-  <si>
-    <t>RC0805FR-075K6L</t>
-  </si>
-  <si>
-    <t>RC1206JR-0710KL</t>
-  </si>
-  <si>
-    <t>RC0805FR-0715KL</t>
-  </si>
-  <si>
-    <t>RC0805JR-0720KL</t>
-  </si>
-  <si>
-    <t>RC1206JR-07240RL</t>
-  </si>
-  <si>
-    <t>RC1206JR-07200KL</t>
-  </si>
-  <si>
-    <t>3224W-1-204E</t>
-  </si>
-  <si>
-    <t>3224W-1-104E</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>ROHM Semiconductor</t>
-  </si>
-  <si>
-    <t>FC4L64R050FER</t>
-  </si>
-  <si>
-    <t>Ohmite Mfg</t>
-  </si>
-  <si>
-    <t>RC1206JR-0775RL</t>
-  </si>
-  <si>
-    <t>RC0805JR-0733RL</t>
-  </si>
-  <si>
-    <t>RC0805JR-07390RL</t>
-  </si>
-  <si>
-    <t>RC0805FR-0710KL</t>
-  </si>
-  <si>
-    <t>ВН-10</t>
-  </si>
-  <si>
-    <t>Connfly</t>
-  </si>
-  <si>
-    <t>PHU-3</t>
-  </si>
-  <si>
-    <t>PWL2-02</t>
-  </si>
-  <si>
-    <t>PWL2-04</t>
-  </si>
-  <si>
-    <t>51021-0400</t>
-  </si>
-  <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>VHR-2N</t>
-  </si>
-  <si>
-    <t>JST</t>
-  </si>
-  <si>
-    <t>VHR-4N</t>
-  </si>
-  <si>
-    <t>PW10-6-M</t>
-  </si>
-  <si>
-    <t>DG300-7.5-02P-12</t>
+    <t xml:space="preserve">RC0805JR-0710KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-0730KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-0747KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-0747KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-0782KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-071ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-0718RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-0756RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-0775RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-07150RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805JR-07150RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805JR-07360RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-07560RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-072KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805JR-073KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-073KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-075K1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-075K6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC1206JR-0710KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-0715KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805JR-0720KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC1206JR-07240RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC1206JR-07200KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3224W-1-204E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3224W-1-104E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROHM Semiconductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC4L64R050FER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohmite Mfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC1206JR-0775RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805JR-0733RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805JR-07390RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-0710KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВН-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connfly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHU-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWL2-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWL2-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51021-0400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VHR-2N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VHR-4N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PW10-6-M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DG300-7.5-02P-12</t>
   </si>
   <si>
     <t xml:space="preserve">SVH-21T-P1.1 </t>
   </si>
   <si>
-    <t>15134-0403</t>
-  </si>
-  <si>
-    <t>Harting</t>
-  </si>
-  <si>
-    <t>Hsm</t>
-  </si>
-  <si>
-    <t>Degson</t>
-  </si>
-  <si>
-    <t>DT38-32.768 KHz</t>
-  </si>
-  <si>
-    <t>KDS</t>
-  </si>
-  <si>
-    <t>08-70-1030</t>
-  </si>
-  <si>
-    <t>08-50-0106</t>
-  </si>
-  <si>
-    <t>Блок питания PS-05-12</t>
-  </si>
-  <si>
-    <t>Источник питания AC/DC CCB200PS28</t>
-  </si>
-  <si>
-    <t>Блок питания МАХ 124 (13100-105)</t>
-  </si>
-  <si>
-    <t>Батарея литиевая CR-2320</t>
+    <t xml:space="preserve">15134-0403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hsm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT38-32.768 KHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-70-1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-50-0106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок питания PS-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Источник питания AC/DC CCB200PS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок питания МАХ 124 (13100-105)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Батарея литиевая CR-2320</t>
   </si>
   <si>
     <t xml:space="preserve">Объектив LMVZ41A-HR </t>
   </si>
   <si>
-    <t>SDXC Card 128Gb Class 10 San Disk Extreme Pro 170/90 MB/s</t>
-  </si>
-  <si>
-    <t>SD Card Connector X_SDJMF-0T901B000 (DM1B-DSF-PEJ)</t>
-  </si>
-  <si>
-    <t>Авт. выключатель 2п 6А C S202 6 кА (2CDS252001R0064)</t>
-  </si>
-  <si>
-    <t>PS-05-12</t>
-  </si>
-  <si>
-    <t>MEAN WELL</t>
-  </si>
-  <si>
-    <t>CCB200PS28</t>
-  </si>
-  <si>
-    <t>XP Power</t>
-  </si>
-  <si>
-    <t>BHX1-2325-SM</t>
-  </si>
-  <si>
-    <t>MPD</t>
-  </si>
-  <si>
-    <t>Бокс батареи CR 2325/1 (BH908T батарейный отсек для 1 элемента CR2320)</t>
-  </si>
-  <si>
-    <t>CR-2320</t>
-  </si>
-  <si>
-    <t>Varta</t>
-  </si>
-  <si>
-    <t>DM1B-DSF-PEJ(92)</t>
-  </si>
-  <si>
-    <t>Hirose Electric</t>
-  </si>
-  <si>
-    <t>2CDS252001R0064</t>
-  </si>
-  <si>
-    <t>ABB</t>
-  </si>
-  <si>
-    <t>ADG451BRUZ-REEL7</t>
-  </si>
-  <si>
-    <t>AD8614ARTZ-REEL7</t>
-  </si>
-  <si>
-    <t>AD5621AKSZ-REEL7</t>
-  </si>
-  <si>
-    <t>Analog Devices</t>
-  </si>
-  <si>
-    <t>AD9945KCPZRL7</t>
-  </si>
-  <si>
-    <t>AD8051ARTZ-REEL</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>Altera</t>
-  </si>
-  <si>
-    <t>MAX3362EKA+T</t>
-  </si>
-  <si>
-    <t>ADM202EARNZ-REEL7</t>
-  </si>
-  <si>
-    <t>LTC3407AEDD#TRPBF</t>
-  </si>
-  <si>
-    <t>LTC3250ES6-1.2#TRPBF</t>
-  </si>
-  <si>
-    <t>ADM3101EARQZ</t>
-  </si>
-  <si>
-    <t>SAA7113H</t>
-  </si>
-  <si>
-    <t>ADM708ARZ-REEL</t>
-  </si>
-  <si>
-    <t>AD7276AUJZ-REEL7</t>
-  </si>
-  <si>
-    <t>AD9214BRSZ-105</t>
-  </si>
-  <si>
-    <t>PHILIPS</t>
-  </si>
-  <si>
-    <t>ICX429AKL-7</t>
-  </si>
-  <si>
-    <t>SONY</t>
+    <t xml:space="preserve">SDXC Card 128Gb Class 10 San Disk Extreme Pro 170/90 MB/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD Card Connector X_SDJMF-0T901B000 (DM1B-DSF-PEJ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авт. выключатель 2п 6А C S202 6 кА (2CDS252001R0064)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEAN WELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCB200PS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XP Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHX1-2325-SM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бокс батареи CR 2325/1 (BH908T батарейный отсек для 1 элемента CR2320)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR-2320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM1B-DSF-PEJ(92)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirose Electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2CDS252001R0064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADG451BRUZ-REEL7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD8614ARTZ-REEL7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD5621AKSZ-REEL7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog Devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD9945KCPZRL7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD8051ARTZ-REEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microchip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX3362EKA+T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM202EARNZ-REEL7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC3407AEDD#TRPBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC3250ES6-1.2#TRPBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM3101EARQZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAA7113H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM708ARZ-REEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD7276AUJZ-REEL7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD9214BRSZ-105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHILIPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICX429AKL-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONY</t>
   </si>
   <si>
     <r>
-      <t>MC78L15ABD</t>
+      <t xml:space="preserve">MC78L15ABD</t>
     </r>
     <r>
       <rPr>
@@ -1131,7 +1125,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>R2</t>
+      <t xml:space="preserve">R2</t>
     </r>
     <r>
       <rPr>
@@ -1142,21 +1136,21 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>G</t>
+      <t xml:space="preserve">G</t>
     </r>
   </si>
   <si>
-    <t>173977-4</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>7-9 недель</t>
+    <t xml:space="preserve">173977-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-9 недель</t>
   </si>
   <si>
     <r>
-      <t>AT91SAM7X512</t>
+      <t xml:space="preserve">AT91SAM7X512</t>
     </r>
     <r>
       <rPr>
@@ -1166,7 +1160,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>B</t>
+      <t xml:space="preserve">B</t>
     </r>
     <r>
       <rPr>
@@ -1176,7 +1170,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>-AU</t>
+      <t xml:space="preserve">-AU</t>
     </r>
   </si>
   <si>
@@ -1188,7 +1182,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>LT</t>
+      <t xml:space="preserve">LT</t>
     </r>
     <r>
       <rPr>
@@ -1203,7 +1197,7 @@
   </si>
   <si>
     <r>
-      <t>78L05</t>
+      <t xml:space="preserve">78L05</t>
     </r>
     <r>
       <rPr>
@@ -1213,7 +1207,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>L</t>
+      <t xml:space="preserve">L</t>
     </r>
     <r>
       <rPr>
@@ -1223,12 +1217,12 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>-T92-K</t>
+      <t xml:space="preserve">-T92-K</t>
     </r>
   </si>
   <si>
     <r>
-      <t>AMEL5-12SE</t>
+      <t xml:space="preserve">AMEL5-12SE</t>
     </r>
     <r>
       <rPr>
@@ -1238,24 +1232,24 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>MAZ</t>
+      <t xml:space="preserve">MAZ</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">Bourns </t>
   </si>
   <si>
-    <t>CC0402KRX7R7BB104</t>
+    <t xml:space="preserve">CC0402KRX7R7BB104</t>
   </si>
   <si>
     <t xml:space="preserve">YAGEO </t>
   </si>
   <si>
-    <t>C4532Y5V1E226ZT000N</t>
+    <t xml:space="preserve">C4532Y5V1E226ZT000N</t>
   </si>
   <si>
     <r>
-      <t>163-156N-</t>
+      <t xml:space="preserve">163-156N-</t>
     </r>
     <r>
       <rPr>
@@ -1266,7 +1260,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t xml:space="preserve">1</t>
     </r>
     <r>
       <rPr>
@@ -1277,17 +1271,17 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-E</t>
+      <t xml:space="preserve">-E</t>
     </r>
   </si>
   <si>
-    <t>Kobiconn</t>
-  </si>
-  <si>
-    <t>PHD10H-H</t>
-  </si>
-  <si>
-    <t>AUK CONTRACTORS</t>
+    <t xml:space="preserve">Kobiconn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHD10H-H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUK CONTRACTORS</t>
   </si>
   <si>
     <r>
@@ -1299,7 +1293,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>L-</t>
+      <t xml:space="preserve">L-</t>
     </r>
     <r>
       <rPr>
@@ -1310,30 +1304,30 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>KLS1-XA1-2.00-T</t>
+      <t xml:space="preserve">KLS1-XA1-2.00-T</t>
     </r>
   </si>
   <si>
-    <t>KLS</t>
-  </si>
-  <si>
-    <t>292161-4</t>
-  </si>
-  <si>
-    <t>0009501021</t>
-  </si>
-  <si>
-    <t>0010015032</t>
-  </si>
-  <si>
-    <t>13100-105</t>
-  </si>
-  <si>
-    <t>Schroff</t>
+    <t xml:space="preserve">KLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292161-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0009501021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0010015032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13100-105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schroff</t>
   </si>
   <si>
     <r>
-      <t>78L05</t>
+      <t xml:space="preserve">78L05</t>
     </r>
     <r>
       <rPr>
@@ -1343,39 +1337,39 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>-T92-K</t>
+      <t xml:space="preserve">-T92-K</t>
     </r>
   </si>
   <si>
-    <t>SG-8018CA 15.0000M-TJHPA0</t>
+    <t xml:space="preserve">SG-8018CA 15.0000M-TJHPA0</t>
   </si>
   <si>
     <t xml:space="preserve">Epson </t>
   </si>
   <si>
-    <t>SG-8018CA 22.118400MHZ TJHPA</t>
-  </si>
-  <si>
-    <t>SG-8018CA 24.576000MHZ TJHSB</t>
-  </si>
-  <si>
-    <t>SG-8018CA 120.000000MHZ TJHSB</t>
-  </si>
-  <si>
-    <t>SG-8002DC 11.059200MHZ PTB</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>Aimtec</t>
-  </si>
-  <si>
-    <t>3-4 недели</t>
+    <t xml:space="preserve">SG-8018CA 22.118400MHZ TJHPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG-8018CA 24.576000MHZ TJHSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG-8018CA 120.000000MHZ TJHSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG-8002DC 11.059200MHZ PTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aimtec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-4 недели</t>
   </si>
   <si>
     <r>
-      <t>CM32</t>
+      <t xml:space="preserve">CM32</t>
     </r>
     <r>
       <rPr>
@@ -1386,7 +1380,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2522</t>
+      <t xml:space="preserve">2522</t>
     </r>
     <r>
       <rPr>
@@ -1397,18 +1391,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-1R0KL</t>
+      <t xml:space="preserve">-1R0KL</t>
     </r>
   </si>
   <si>
-    <t>мин. 35 шт.</t>
-  </si>
-  <si>
-    <t>мин. 100 шт.</t>
+    <t xml:space="preserve">мин. 35 шт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мин. 100 шт.</t>
   </si>
   <si>
     <r>
-      <t>AT91SAM7X512</t>
+      <t xml:space="preserve">AT91SAM7X512</t>
     </r>
     <r>
       <rPr>
@@ -1419,7 +1413,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>B</t>
+      <t xml:space="preserve">B</t>
     </r>
     <r>
       <rPr>
@@ -1430,21 +1424,21 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-AU</t>
+      <t xml:space="preserve">-AU</t>
     </r>
   </si>
   <si>
-    <t>LT3791EFE#TRPBF</t>
-  </si>
-  <si>
-    <t>32-36 недель</t>
-  </si>
-  <si>
-    <t>мин. 50 шт.</t>
+    <t xml:space="preserve">LT3791EFE#TRPBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32-36 недель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мин. 50 шт.</t>
   </si>
   <si>
     <r>
-      <t>74ACT04MTC</t>
+      <t xml:space="preserve">74ACT04MTC</t>
     </r>
     <r>
       <rPr>
@@ -1455,12 +1449,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>X</t>
+      <t xml:space="preserve">X</t>
     </r>
   </si>
   <si>
     <r>
-      <t>DS1307Z</t>
+      <t xml:space="preserve">DS1307Z</t>
     </r>
     <r>
       <rPr>
@@ -1471,60 +1465,64 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+T&amp;R</t>
+      <t xml:space="preserve">+T&amp;R</t>
     </r>
   </si>
   <si>
-    <t>HC9-100-R</t>
-  </si>
-  <si>
-    <t>Сняты в 2014</t>
-  </si>
-  <si>
-    <t>Сняты в 2011</t>
-  </si>
-  <si>
-    <t>530470410</t>
-  </si>
-  <si>
-    <t>9031646921</t>
-  </si>
-  <si>
-    <t>9032966825</t>
-  </si>
-  <si>
-    <t>9062152890</t>
-  </si>
-  <si>
-    <t>500588000</t>
-  </si>
-  <si>
-    <t>сложность</t>
-  </si>
-  <si>
-    <t>диод</t>
-  </si>
-  <si>
-    <t>дросель</t>
-  </si>
-  <si>
-    <t>конденсатор</t>
-  </si>
-  <si>
-    <t>резистор</t>
-  </si>
-  <si>
-    <t>соединитель</t>
-  </si>
-  <si>
-    <t>модуль</t>
+    <t xml:space="preserve">HC9-100-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сняты в 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сняты в 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">530470410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9031646921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9032966825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9062152890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500588000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сложность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">диод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дросель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">конденсатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">резистор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">соединитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">модуль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумма полная, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1570,6 +1568,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1796,9 +1814,9 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="965">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1947,6 +1965,913 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1954,11 +2879,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2260,7 +3185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:N184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2317,6 +3242,15 @@
       <c r="M1" t="s">
         <v>400</v>
       </c>
+      <c r="Q1" s="420" t="s">
+        <v>407</v>
+      </c>
+      <c r="R1" s="601" t="s">
+        <v>407</v>
+      </c>
+      <c r="S1" s="783" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="39"/>
@@ -2370,6 +3304,12 @@
         <f>"микросхема"&amp;M3</f>
         <v>микросхема3</v>
       </c>
+      <c r="R3" s="602">
+        <v>33242</v>
+      </c>
+      <c r="S3" s="784">
+        <v>33242</v>
+      </c>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -2412,6 +3352,21 @@
         <f t="shared" ref="N4:N49" si="1">"микросхема"&amp;M4</f>
         <v>микросхема2</v>
       </c>
+      <c r="O4" s="59">
+        <v>33242</v>
+      </c>
+      <c r="P4" s="240">
+        <v>33242</v>
+      </c>
+      <c r="Q4" s="421">
+        <v>33242</v>
+      </c>
+      <c r="R4" s="603">
+        <v>39215</v>
+      </c>
+      <c r="S4" s="785">
+        <v>39215</v>
+      </c>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -2453,6 +3408,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O5" s="60">
+        <v>39215</v>
+      </c>
+      <c r="P5" s="241">
+        <v>39215</v>
+      </c>
+      <c r="Q5" s="422">
+        <v>39215</v>
+      </c>
+      <c r="R5" s="604">
+        <v>35459</v>
+      </c>
+      <c r="S5" s="786">
+        <v>35459</v>
+      </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -2493,6 +3463,21 @@
       <c r="N6" t="str">
         <f t="shared" si="1"/>
         <v>микросхема1</v>
+      </c>
+      <c r="O6" s="61">
+        <v>35459</v>
+      </c>
+      <c r="P6" s="242">
+        <v>35459</v>
+      </c>
+      <c r="Q6" s="423">
+        <v>35459</v>
+      </c>
+      <c r="R6" s="605">
+        <v>62961</v>
+      </c>
+      <c r="S6" s="787">
+        <v>62961</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2527,6 +3512,21 @@
         <f t="shared" si="1"/>
         <v>микросхема1</v>
       </c>
+      <c r="O7" s="62">
+        <v>62961</v>
+      </c>
+      <c r="P7" s="243">
+        <v>62961</v>
+      </c>
+      <c r="Q7" s="424">
+        <v>62961</v>
+      </c>
+      <c r="R7" s="606">
+        <v>59451</v>
+      </c>
+      <c r="S7" s="788">
+        <v>59451</v>
+      </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -2568,6 +3568,21 @@
         <f t="shared" si="1"/>
         <v>микросхема2</v>
       </c>
+      <c r="O8" s="63">
+        <v>59451</v>
+      </c>
+      <c r="P8" s="244">
+        <v>59451</v>
+      </c>
+      <c r="Q8" s="425">
+        <v>59451</v>
+      </c>
+      <c r="R8" s="607">
+        <v>30885</v>
+      </c>
+      <c r="S8" s="789">
+        <v>30885</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -2609,6 +3624,21 @@
         <f t="shared" si="1"/>
         <v>микросхема1</v>
       </c>
+      <c r="O9" s="64">
+        <v>30885</v>
+      </c>
+      <c r="P9" s="245">
+        <v>30885</v>
+      </c>
+      <c r="Q9" s="426">
+        <v>30885</v>
+      </c>
+      <c r="R9" s="608">
+        <v>62961</v>
+      </c>
+      <c r="S9" s="790">
+        <v>62961</v>
+      </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -2650,6 +3680,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O10" s="65">
+        <v>62961</v>
+      </c>
+      <c r="P10" s="246">
+        <v>62961</v>
+      </c>
+      <c r="Q10" s="427">
+        <v>62961</v>
+      </c>
+      <c r="R10" s="609">
+        <v>34162</v>
+      </c>
+      <c r="S10" s="791">
+        <v>34162</v>
+      </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -2691,6 +3736,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O11" s="66">
+        <v>34162</v>
+      </c>
+      <c r="P11" s="247">
+        <v>34162</v>
+      </c>
+      <c r="Q11" s="428">
+        <v>34162</v>
+      </c>
+      <c r="R11" s="610">
+        <v>34921</v>
+      </c>
+      <c r="S11" s="792">
+        <v>34921</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
@@ -2732,6 +3792,21 @@
         <f t="shared" si="1"/>
         <v>микросхема1</v>
       </c>
+      <c r="O12" s="67">
+        <v>34921</v>
+      </c>
+      <c r="P12" s="248">
+        <v>34921</v>
+      </c>
+      <c r="Q12" s="429">
+        <v>34921</v>
+      </c>
+      <c r="R12" s="611">
+        <v>65325</v>
+      </c>
+      <c r="S12" s="793">
+        <v>65325</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -2773,6 +3848,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O13" s="68">
+        <v>65325</v>
+      </c>
+      <c r="P13" s="249">
+        <v>65325</v>
+      </c>
+      <c r="Q13" s="430">
+        <v>65325</v>
+      </c>
+      <c r="R13" s="612">
+        <v>34162</v>
+      </c>
+      <c r="S13" s="794">
+        <v>34162</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
@@ -2814,6 +3904,21 @@
         <f t="shared" si="1"/>
         <v>микросхема1</v>
       </c>
+      <c r="O14" s="69">
+        <v>34162</v>
+      </c>
+      <c r="P14" s="250">
+        <v>34162</v>
+      </c>
+      <c r="Q14" s="431">
+        <v>34162</v>
+      </c>
+      <c r="R14" s="613">
+        <v>59451</v>
+      </c>
+      <c r="S14" s="795">
+        <v>59451</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -2855,6 +3960,21 @@
         <f t="shared" si="1"/>
         <v>микросхема2</v>
       </c>
+      <c r="O15" s="70">
+        <v>59451</v>
+      </c>
+      <c r="P15" s="251">
+        <v>59451</v>
+      </c>
+      <c r="Q15" s="432">
+        <v>59451</v>
+      </c>
+      <c r="R15" s="614">
+        <v>36603</v>
+      </c>
+      <c r="S15" s="796">
+        <v>36603</v>
+      </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -2896,6 +4016,21 @@
         <f t="shared" si="1"/>
         <v>микросхема1</v>
       </c>
+      <c r="O16" s="71">
+        <v>36603</v>
+      </c>
+      <c r="P16" s="252">
+        <v>36603</v>
+      </c>
+      <c r="Q16" s="433">
+        <v>36603</v>
+      </c>
+      <c r="R16" s="615">
+        <v>49014</v>
+      </c>
+      <c r="S16" s="797">
+        <v>49014</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -2937,6 +4072,21 @@
         <f t="shared" si="1"/>
         <v>микросхема2</v>
       </c>
+      <c r="O17" s="72">
+        <v>49014</v>
+      </c>
+      <c r="P17" s="253">
+        <v>49014</v>
+      </c>
+      <c r="Q17" s="434">
+        <v>49014</v>
+      </c>
+      <c r="R17" s="616">
+        <v>39215</v>
+      </c>
+      <c r="S17" s="798">
+        <v>39215</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
@@ -2978,6 +4128,21 @@
         <f t="shared" si="1"/>
         <v>микросхема2</v>
       </c>
+      <c r="O18" s="73">
+        <v>39215</v>
+      </c>
+      <c r="P18" s="254">
+        <v>39215</v>
+      </c>
+      <c r="Q18" s="435">
+        <v>39215</v>
+      </c>
+      <c r="R18" s="617">
+        <v>40205</v>
+      </c>
+      <c r="S18" s="799">
+        <v>40205</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -3019,6 +4184,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O19" s="74">
+        <v>40205</v>
+      </c>
+      <c r="P19" s="255">
+        <v>40205</v>
+      </c>
+      <c r="Q19" s="436">
+        <v>40205</v>
+      </c>
+      <c r="R19" s="618">
+        <v>34554</v>
+      </c>
+      <c r="S19" s="800">
+        <v>34554</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
@@ -3060,6 +4240,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O20" s="75">
+        <v>34554</v>
+      </c>
+      <c r="P20" s="256">
+        <v>34554</v>
+      </c>
+      <c r="Q20" s="437">
+        <v>34554</v>
+      </c>
+      <c r="R20" s="619">
+        <v>34162</v>
+      </c>
+      <c r="S20" s="801">
+        <v>34162</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
@@ -3101,6 +4296,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O21" s="76">
+        <v>34162</v>
+      </c>
+      <c r="P21" s="257">
+        <v>34162</v>
+      </c>
+      <c r="Q21" s="438">
+        <v>34162</v>
+      </c>
+      <c r="R21" s="620">
+        <v>34744</v>
+      </c>
+      <c r="S21" s="802">
+        <v>34744</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
@@ -3142,6 +4352,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O22" s="77">
+        <v>34744</v>
+      </c>
+      <c r="P22" s="258">
+        <v>34744</v>
+      </c>
+      <c r="Q22" s="439">
+        <v>34744</v>
+      </c>
+      <c r="R22" s="621">
+        <v>33611</v>
+      </c>
+      <c r="S22" s="803">
+        <v>33611</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -3183,6 +4408,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O23" s="78">
+        <v>33611</v>
+      </c>
+      <c r="P23" s="259">
+        <v>33611</v>
+      </c>
+      <c r="Q23" s="440">
+        <v>33611</v>
+      </c>
+      <c r="R23" s="622">
+        <v>48285</v>
+      </c>
+      <c r="S23" s="804">
+        <v>48285</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
@@ -3223,6 +4463,21 @@
       <c r="N24" t="str">
         <f t="shared" si="1"/>
         <v>микросхема3</v>
+      </c>
+      <c r="O24" s="79">
+        <v>48285</v>
+      </c>
+      <c r="P24" s="260">
+        <v>48285</v>
+      </c>
+      <c r="Q24" s="441">
+        <v>48285</v>
+      </c>
+      <c r="R24" s="623">
+        <v>33611</v>
+      </c>
+      <c r="S24" s="805">
+        <v>33611</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3268,6 +4523,21 @@
         <f t="shared" si="1"/>
         <v>микросхема1</v>
       </c>
+      <c r="O25" s="80">
+        <v>33611</v>
+      </c>
+      <c r="P25" s="261">
+        <v>33611</v>
+      </c>
+      <c r="Q25" s="442">
+        <v>33611</v>
+      </c>
+      <c r="R25" s="624">
+        <v>57101</v>
+      </c>
+      <c r="S25" s="806">
+        <v>57101</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -3308,6 +4578,21 @@
       <c r="N26" t="str">
         <f t="shared" si="1"/>
         <v>микросхема3</v>
+      </c>
+      <c r="O26" s="81">
+        <v>57101</v>
+      </c>
+      <c r="P26" s="262">
+        <v>57101</v>
+      </c>
+      <c r="Q26" s="443">
+        <v>57101</v>
+      </c>
+      <c r="R26" s="625">
+        <v>36419</v>
+      </c>
+      <c r="S26" s="807">
+        <v>36419</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3342,6 +4627,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O27" s="82">
+        <v>36419</v>
+      </c>
+      <c r="P27" s="263">
+        <v>36419</v>
+      </c>
+      <c r="Q27" s="444">
+        <v>36419</v>
+      </c>
+      <c r="R27" s="626">
+        <v>34370</v>
+      </c>
+      <c r="S27" s="808">
+        <v>34370</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
@@ -3383,6 +4683,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O28" s="83">
+        <v>34370</v>
+      </c>
+      <c r="P28" s="264">
+        <v>34370</v>
+      </c>
+      <c r="Q28" s="445">
+        <v>34370</v>
+      </c>
+      <c r="R28" s="627">
+        <v>33242</v>
+      </c>
+      <c r="S28" s="809">
+        <v>33242</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
@@ -3424,6 +4739,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O29" s="84">
+        <v>33242</v>
+      </c>
+      <c r="P29" s="265">
+        <v>33242</v>
+      </c>
+      <c r="Q29" s="446">
+        <v>33242</v>
+      </c>
+      <c r="R29" s="628">
+        <v>33242</v>
+      </c>
+      <c r="S29" s="810">
+        <v>33242</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
@@ -3465,6 +4795,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O30" s="85">
+        <v>33242</v>
+      </c>
+      <c r="P30" s="266">
+        <v>33242</v>
+      </c>
+      <c r="Q30" s="447">
+        <v>33242</v>
+      </c>
+      <c r="R30" s="629">
+        <v>33242</v>
+      </c>
+      <c r="S30" s="811">
+        <v>33242</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
@@ -3505,6 +4850,21 @@
       <c r="N31" t="str">
         <f t="shared" si="1"/>
         <v>микросхема1</v>
+      </c>
+      <c r="O31" s="86">
+        <v>33242</v>
+      </c>
+      <c r="P31" s="267">
+        <v>33242</v>
+      </c>
+      <c r="Q31" s="448">
+        <v>33242</v>
+      </c>
+      <c r="R31" s="630">
+        <v>59451</v>
+      </c>
+      <c r="S31" s="812">
+        <v>59451</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3542,6 +4902,21 @@
         <f t="shared" si="1"/>
         <v>микросхема1</v>
       </c>
+      <c r="O32" s="87">
+        <v>59451</v>
+      </c>
+      <c r="P32" s="268">
+        <v>59451</v>
+      </c>
+      <c r="Q32" s="449">
+        <v>59451</v>
+      </c>
+      <c r="R32" s="631">
+        <v>59451</v>
+      </c>
+      <c r="S32" s="813">
+        <v>59451</v>
+      </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
@@ -3583,6 +4958,21 @@
         <f t="shared" si="1"/>
         <v>микросхема2</v>
       </c>
+      <c r="O33" s="88">
+        <v>59451</v>
+      </c>
+      <c r="P33" s="269">
+        <v>59451</v>
+      </c>
+      <c r="Q33" s="450">
+        <v>59451</v>
+      </c>
+      <c r="R33" s="632">
+        <v>41895</v>
+      </c>
+      <c r="S33" s="814">
+        <v>41895</v>
+      </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
@@ -3624,6 +5014,21 @@
         <f t="shared" si="1"/>
         <v>микросхема1</v>
       </c>
+      <c r="O34" s="89">
+        <v>41895</v>
+      </c>
+      <c r="P34" s="270">
+        <v>41895</v>
+      </c>
+      <c r="Q34" s="451">
+        <v>41895</v>
+      </c>
+      <c r="R34" s="633">
+        <v>33759</v>
+      </c>
+      <c r="S34" s="815">
+        <v>33759</v>
+      </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
@@ -3665,6 +5070,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O35" s="90">
+        <v>33759</v>
+      </c>
+      <c r="P35" s="271">
+        <v>33759</v>
+      </c>
+      <c r="Q35" s="452">
+        <v>33759</v>
+      </c>
+      <c r="R35" s="634">
+        <v>33242</v>
+      </c>
+      <c r="S35" s="816">
+        <v>33242</v>
+      </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
@@ -3706,6 +5126,21 @@
         <f t="shared" si="1"/>
         <v>микросхема2</v>
       </c>
+      <c r="O36" s="91">
+        <v>33242</v>
+      </c>
+      <c r="P36" s="272">
+        <v>33242</v>
+      </c>
+      <c r="Q36" s="453">
+        <v>33242</v>
+      </c>
+      <c r="R36" s="635">
+        <v>37521</v>
+      </c>
+      <c r="S36" s="817">
+        <v>37521</v>
+      </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
@@ -3747,6 +5182,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O37" s="92">
+        <v>37521</v>
+      </c>
+      <c r="P37" s="273">
+        <v>37521</v>
+      </c>
+      <c r="Q37" s="454">
+        <v>37521</v>
+      </c>
+      <c r="R37" s="636">
+        <v>33242</v>
+      </c>
+      <c r="S37" s="818">
+        <v>33242</v>
+      </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
@@ -3788,6 +5238,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O38" s="93">
+        <v>33242</v>
+      </c>
+      <c r="P38" s="274">
+        <v>33242</v>
+      </c>
+      <c r="Q38" s="455">
+        <v>33242</v>
+      </c>
+      <c r="R38" s="637">
+        <v>30140</v>
+      </c>
+      <c r="S38" s="819">
+        <v>30140</v>
+      </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
@@ -3829,6 +5294,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O39" s="94">
+        <v>30140</v>
+      </c>
+      <c r="P39" s="275">
+        <v>30140</v>
+      </c>
+      <c r="Q39" s="456">
+        <v>30140</v>
+      </c>
+      <c r="R39" s="638">
+        <v>33242</v>
+      </c>
+      <c r="S39" s="820">
+        <v>33242</v>
+      </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
@@ -3870,6 +5350,21 @@
         <f t="shared" si="1"/>
         <v>микросхема2</v>
       </c>
+      <c r="O40" s="95">
+        <v>33242</v>
+      </c>
+      <c r="P40" s="276">
+        <v>33242</v>
+      </c>
+      <c r="Q40" s="457">
+        <v>33242</v>
+      </c>
+      <c r="R40" s="639">
+        <v>37521</v>
+      </c>
+      <c r="S40" s="821">
+        <v>37521</v>
+      </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
@@ -3911,6 +5406,21 @@
         <f t="shared" si="1"/>
         <v>микросхема2</v>
       </c>
+      <c r="O41" s="96">
+        <v>37521</v>
+      </c>
+      <c r="P41" s="277">
+        <v>37521</v>
+      </c>
+      <c r="Q41" s="458">
+        <v>37521</v>
+      </c>
+      <c r="R41" s="640">
+        <v>38190</v>
+      </c>
+      <c r="S41" s="822">
+        <v>38190</v>
+      </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
@@ -3952,6 +5462,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O42" s="97">
+        <v>38190</v>
+      </c>
+      <c r="P42" s="278">
+        <v>38190</v>
+      </c>
+      <c r="Q42" s="459">
+        <v>38190</v>
+      </c>
+      <c r="R42" s="641">
+        <v>34162</v>
+      </c>
+      <c r="S42" s="823">
+        <v>34162</v>
+      </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
@@ -3993,6 +5518,21 @@
         <f t="shared" si="1"/>
         <v>микросхема2</v>
       </c>
+      <c r="O43" s="98">
+        <v>34162</v>
+      </c>
+      <c r="P43" s="279">
+        <v>34162</v>
+      </c>
+      <c r="Q43" s="460">
+        <v>34162</v>
+      </c>
+      <c r="R43" s="642">
+        <v>38190</v>
+      </c>
+      <c r="S43" s="824">
+        <v>38190</v>
+      </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
@@ -4034,6 +5574,21 @@
         <f t="shared" si="1"/>
         <v>микросхема1</v>
       </c>
+      <c r="O44" s="99">
+        <v>38190</v>
+      </c>
+      <c r="P44" s="280">
+        <v>38190</v>
+      </c>
+      <c r="Q44" s="461">
+        <v>38190</v>
+      </c>
+      <c r="R44" s="643">
+        <v>36100</v>
+      </c>
+      <c r="S44" s="825">
+        <v>36100</v>
+      </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
@@ -4075,6 +5630,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O45" s="100">
+        <v>36100</v>
+      </c>
+      <c r="P45" s="281">
+        <v>36100</v>
+      </c>
+      <c r="Q45" s="462">
+        <v>36100</v>
+      </c>
+      <c r="R45" s="644">
+        <v>33611</v>
+      </c>
+      <c r="S45" s="826">
+        <v>33611</v>
+      </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
@@ -4116,6 +5686,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O46" s="101">
+        <v>33611</v>
+      </c>
+      <c r="P46" s="282">
+        <v>33611</v>
+      </c>
+      <c r="Q46" s="463">
+        <v>33611</v>
+      </c>
+      <c r="R46" s="645">
+        <v>33993</v>
+      </c>
+      <c r="S46" s="827">
+        <v>33993</v>
+      </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
@@ -4157,6 +5742,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O47" s="102">
+        <v>33993</v>
+      </c>
+      <c r="P47" s="283">
+        <v>33993</v>
+      </c>
+      <c r="Q47" s="464">
+        <v>33993</v>
+      </c>
+      <c r="R47" s="646">
+        <v>34921</v>
+      </c>
+      <c r="S47" s="828">
+        <v>34921</v>
+      </c>
     </row>
     <row r="48" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
@@ -4198,6 +5798,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O48" s="103">
+        <v>34921</v>
+      </c>
+      <c r="P48" s="284">
+        <v>34921</v>
+      </c>
+      <c r="Q48" s="465">
+        <v>34921</v>
+      </c>
+      <c r="R48" s="647">
+        <v>33054</v>
+      </c>
+      <c r="S48" s="829">
+        <v>33054</v>
+      </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
@@ -4239,6 +5854,21 @@
         <f t="shared" si="1"/>
         <v>микросхема3</v>
       </c>
+      <c r="O49" s="104">
+        <v>33054</v>
+      </c>
+      <c r="P49" s="285">
+        <v>33054</v>
+      </c>
+      <c r="Q49" s="466">
+        <v>33054</v>
+      </c>
+      <c r="R49" s="648">
+        <v>33054</v>
+      </c>
+      <c r="S49" s="830">
+        <v>33054</v>
+      </c>
     </row>
     <row r="50" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
@@ -4276,6 +5906,21 @@
       <c r="N50" t="s">
         <v>401</v>
       </c>
+      <c r="O50" s="105">
+        <v>33054</v>
+      </c>
+      <c r="P50" s="286">
+        <v>33054</v>
+      </c>
+      <c r="Q50" s="467">
+        <v>33054</v>
+      </c>
+      <c r="R50" s="649">
+        <v>38637</v>
+      </c>
+      <c r="S50" s="831">
+        <v>38637</v>
+      </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
@@ -4313,6 +5958,21 @@
       <c r="N51" t="s">
         <v>401</v>
       </c>
+      <c r="O51" s="106">
+        <v>38637</v>
+      </c>
+      <c r="P51" s="287">
+        <v>38637</v>
+      </c>
+      <c r="Q51" s="468">
+        <v>38637</v>
+      </c>
+      <c r="R51" s="650">
+        <v>33421</v>
+      </c>
+      <c r="S51" s="832">
+        <v>33421</v>
+      </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
@@ -4350,6 +6010,21 @@
       <c r="N52" t="s">
         <v>401</v>
       </c>
+      <c r="O52" s="107">
+        <v>33421</v>
+      </c>
+      <c r="P52" s="288">
+        <v>33421</v>
+      </c>
+      <c r="Q52" s="469">
+        <v>33421</v>
+      </c>
+      <c r="R52" s="651">
+        <v>33723</v>
+      </c>
+      <c r="S52" s="833">
+        <v>33723</v>
+      </c>
     </row>
     <row r="53" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
@@ -4387,6 +6062,21 @@
       <c r="N53" t="s">
         <v>401</v>
       </c>
+      <c r="O53" s="108">
+        <v>33723</v>
+      </c>
+      <c r="P53" s="289">
+        <v>33723</v>
+      </c>
+      <c r="Q53" s="470">
+        <v>33723</v>
+      </c>
+      <c r="R53" s="652">
+        <v>33852</v>
+      </c>
+      <c r="S53" s="834">
+        <v>33852</v>
+      </c>
     </row>
     <row r="54" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
@@ -4424,6 +6114,21 @@
       <c r="N54" t="s">
         <v>401</v>
       </c>
+      <c r="O54" s="109">
+        <v>33852</v>
+      </c>
+      <c r="P54" s="290">
+        <v>33852</v>
+      </c>
+      <c r="Q54" s="471">
+        <v>33852</v>
+      </c>
+      <c r="R54" s="653">
+        <v>34760</v>
+      </c>
+      <c r="S54" s="835">
+        <v>34760</v>
+      </c>
     </row>
     <row r="55" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
@@ -4461,6 +6166,21 @@
       <c r="N55" t="s">
         <v>401</v>
       </c>
+      <c r="O55" s="110">
+        <v>34760</v>
+      </c>
+      <c r="P55" s="291">
+        <v>34760</v>
+      </c>
+      <c r="Q55" s="472">
+        <v>34760</v>
+      </c>
+      <c r="R55" s="654">
+        <v>34578</v>
+      </c>
+      <c r="S55" s="836">
+        <v>34578</v>
+      </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
@@ -4498,6 +6218,21 @@
       <c r="N56" t="s">
         <v>402</v>
       </c>
+      <c r="O56" s="111">
+        <v>34578</v>
+      </c>
+      <c r="P56" s="292">
+        <v>34578</v>
+      </c>
+      <c r="Q56" s="473">
+        <v>34578</v>
+      </c>
+      <c r="R56" s="655">
+        <v>32625</v>
+      </c>
+      <c r="S56" s="837">
+        <v>32625</v>
+      </c>
     </row>
     <row r="57" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
@@ -4535,6 +6270,21 @@
       <c r="N57" t="s">
         <v>402</v>
       </c>
+      <c r="O57" s="112">
+        <v>32625</v>
+      </c>
+      <c r="P57" s="293">
+        <v>32625</v>
+      </c>
+      <c r="Q57" s="474">
+        <v>32625</v>
+      </c>
+      <c r="R57" s="656">
+        <v>32092</v>
+      </c>
+      <c r="S57" s="838">
+        <v>32092</v>
+      </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
@@ -4572,6 +6322,21 @@
       <c r="N58" t="s">
         <v>402</v>
       </c>
+      <c r="O58" s="113">
+        <v>32092</v>
+      </c>
+      <c r="P58" s="294">
+        <v>32092</v>
+      </c>
+      <c r="Q58" s="475">
+        <v>32092</v>
+      </c>
+      <c r="R58" s="657">
+        <v>32453</v>
+      </c>
+      <c r="S58" s="839">
+        <v>32453</v>
+      </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
@@ -4609,6 +6374,21 @@
       <c r="N59" t="s">
         <v>402</v>
       </c>
+      <c r="O59" s="114">
+        <v>32453</v>
+      </c>
+      <c r="P59" s="295">
+        <v>32453</v>
+      </c>
+      <c r="Q59" s="476">
+        <v>32453</v>
+      </c>
+      <c r="R59" s="658">
+        <v>30726</v>
+      </c>
+      <c r="S59" s="840">
+        <v>30726</v>
+      </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
@@ -4646,6 +6426,21 @@
       <c r="N60" t="s">
         <v>402</v>
       </c>
+      <c r="O60" s="115">
+        <v>30726</v>
+      </c>
+      <c r="P60" s="296">
+        <v>30726</v>
+      </c>
+      <c r="Q60" s="477">
+        <v>30726</v>
+      </c>
+      <c r="R60" s="659">
+        <v>30228</v>
+      </c>
+      <c r="S60" s="841">
+        <v>30228</v>
+      </c>
     </row>
     <row r="61" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
@@ -4683,6 +6478,21 @@
       <c r="N61" t="s">
         <v>402</v>
       </c>
+      <c r="O61" s="116">
+        <v>30228</v>
+      </c>
+      <c r="P61" s="297">
+        <v>30228</v>
+      </c>
+      <c r="Q61" s="478">
+        <v>30228</v>
+      </c>
+      <c r="R61" s="660">
+        <v>37026</v>
+      </c>
+      <c r="S61" s="842">
+        <v>37026</v>
+      </c>
     </row>
     <row r="62" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
@@ -4720,6 +6530,21 @@
       <c r="N62" t="s">
         <v>403</v>
       </c>
+      <c r="O62" s="117">
+        <v>37026</v>
+      </c>
+      <c r="P62" s="298">
+        <v>37026</v>
+      </c>
+      <c r="Q62" s="479">
+        <v>37026</v>
+      </c>
+      <c r="R62" s="661">
+        <v>32828</v>
+      </c>
+      <c r="S62" s="843">
+        <v>32828</v>
+      </c>
     </row>
     <row r="63" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
@@ -4757,6 +6582,21 @@
       <c r="N63" t="s">
         <v>403</v>
       </c>
+      <c r="O63" s="118">
+        <v>32828</v>
+      </c>
+      <c r="P63" s="299">
+        <v>32828</v>
+      </c>
+      <c r="Q63" s="480">
+        <v>32828</v>
+      </c>
+      <c r="R63" s="662">
+        <v>29406</v>
+      </c>
+      <c r="S63" s="844">
+        <v>29406</v>
+      </c>
     </row>
     <row r="64" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
@@ -4794,6 +6634,21 @@
       <c r="N64" t="s">
         <v>403</v>
       </c>
+      <c r="O64" s="119">
+        <v>29406</v>
+      </c>
+      <c r="P64" s="300">
+        <v>29406</v>
+      </c>
+      <c r="Q64" s="481">
+        <v>29406</v>
+      </c>
+      <c r="R64" s="663">
+        <v>28458</v>
+      </c>
+      <c r="S64" s="845">
+        <v>28458</v>
+      </c>
     </row>
     <row r="65" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
@@ -4831,6 +6686,21 @@
       <c r="N65" t="s">
         <v>403</v>
       </c>
+      <c r="O65" s="120">
+        <v>28458</v>
+      </c>
+      <c r="P65" s="301">
+        <v>28458</v>
+      </c>
+      <c r="Q65" s="482">
+        <v>28458</v>
+      </c>
+      <c r="R65" s="664">
+        <v>28910</v>
+      </c>
+      <c r="S65" s="846">
+        <v>28910</v>
+      </c>
     </row>
     <row r="66" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
@@ -4868,6 +6738,21 @@
       <c r="N66" t="s">
         <v>403</v>
       </c>
+      <c r="O66" s="121">
+        <v>28910</v>
+      </c>
+      <c r="P66" s="302">
+        <v>28910</v>
+      </c>
+      <c r="Q66" s="483">
+        <v>28910</v>
+      </c>
+      <c r="R66" s="665">
+        <v>28234</v>
+      </c>
+      <c r="S66" s="847">
+        <v>28234</v>
+      </c>
     </row>
     <row r="67" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
@@ -4905,6 +6790,21 @@
       <c r="N67" t="s">
         <v>403</v>
       </c>
+      <c r="O67" s="122">
+        <v>28234</v>
+      </c>
+      <c r="P67" s="303">
+        <v>28234</v>
+      </c>
+      <c r="Q67" s="484">
+        <v>28234</v>
+      </c>
+      <c r="R67" s="666">
+        <v>28105</v>
+      </c>
+      <c r="S67" s="848">
+        <v>28105</v>
+      </c>
     </row>
     <row r="68" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
@@ -4942,6 +6842,21 @@
       <c r="N68" t="s">
         <v>403</v>
       </c>
+      <c r="O68" s="123">
+        <v>28105</v>
+      </c>
+      <c r="P68" s="304">
+        <v>28105</v>
+      </c>
+      <c r="Q68" s="485">
+        <v>28105</v>
+      </c>
+      <c r="R68" s="667">
+        <v>28105</v>
+      </c>
+      <c r="S68" s="849">
+        <v>28105</v>
+      </c>
     </row>
     <row r="69" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
@@ -4979,6 +6894,21 @@
       <c r="N69" t="s">
         <v>403</v>
       </c>
+      <c r="O69" s="124">
+        <v>28105</v>
+      </c>
+      <c r="P69" s="305">
+        <v>28105</v>
+      </c>
+      <c r="Q69" s="486">
+        <v>28105</v>
+      </c>
+      <c r="R69" s="668">
+        <v>28105</v>
+      </c>
+      <c r="S69" s="850">
+        <v>28105</v>
+      </c>
     </row>
     <row r="70" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
@@ -5016,6 +6946,21 @@
       <c r="N70" t="s">
         <v>403</v>
       </c>
+      <c r="O70" s="125">
+        <v>28105</v>
+      </c>
+      <c r="P70" s="306">
+        <v>28105</v>
+      </c>
+      <c r="Q70" s="487">
+        <v>28105</v>
+      </c>
+      <c r="R70" s="669">
+        <v>28458</v>
+      </c>
+      <c r="S70" s="851">
+        <v>28458</v>
+      </c>
     </row>
     <row r="71" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
@@ -5053,6 +6998,21 @@
       <c r="N71" t="s">
         <v>403</v>
       </c>
+      <c r="O71" s="126">
+        <v>28458</v>
+      </c>
+      <c r="P71" s="307">
+        <v>28458</v>
+      </c>
+      <c r="Q71" s="488">
+        <v>28458</v>
+      </c>
+      <c r="R71" s="670">
+        <v>96456</v>
+      </c>
+      <c r="S71" s="852">
+        <v>96456</v>
+      </c>
     </row>
     <row r="72" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
@@ -5090,6 +7050,21 @@
       <c r="N72" t="s">
         <v>403</v>
       </c>
+      <c r="O72" s="127">
+        <v>96456</v>
+      </c>
+      <c r="P72" s="308">
+        <v>96456</v>
+      </c>
+      <c r="Q72" s="489">
+        <v>96456</v>
+      </c>
+      <c r="R72" s="671">
+        <v>31780</v>
+      </c>
+      <c r="S72" s="853">
+        <v>31780</v>
+      </c>
     </row>
     <row r="73" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
@@ -5127,6 +7102,21 @@
       <c r="N73" t="s">
         <v>403</v>
       </c>
+      <c r="O73" s="128">
+        <v>31780</v>
+      </c>
+      <c r="P73" s="309">
+        <v>31780</v>
+      </c>
+      <c r="Q73" s="490">
+        <v>31780</v>
+      </c>
+      <c r="R73" s="672">
+        <v>33156</v>
+      </c>
+      <c r="S73" s="854">
+        <v>33156</v>
+      </c>
     </row>
     <row r="74" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
@@ -5164,6 +7154,21 @@
       <c r="N74" t="s">
         <v>403</v>
       </c>
+      <c r="O74" s="129">
+        <v>33156</v>
+      </c>
+      <c r="P74" s="310">
+        <v>33156</v>
+      </c>
+      <c r="Q74" s="491">
+        <v>33156</v>
+      </c>
+      <c r="R74" s="673">
+        <v>33027</v>
+      </c>
+      <c r="S74" s="855">
+        <v>33027</v>
+      </c>
     </row>
     <row r="75" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
@@ -5201,6 +7206,21 @@
       <c r="N75" t="s">
         <v>403</v>
       </c>
+      <c r="O75" s="130">
+        <v>33027</v>
+      </c>
+      <c r="P75" s="311">
+        <v>33027</v>
+      </c>
+      <c r="Q75" s="492">
+        <v>33027</v>
+      </c>
+      <c r="R75" s="674">
+        <v>34122</v>
+      </c>
+      <c r="S75" s="856">
+        <v>34122</v>
+      </c>
     </row>
     <row r="76" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
@@ -5238,6 +7258,21 @@
       <c r="N76" t="s">
         <v>403</v>
       </c>
+      <c r="O76" s="131">
+        <v>34122</v>
+      </c>
+      <c r="P76" s="312">
+        <v>34122</v>
+      </c>
+      <c r="Q76" s="493">
+        <v>34122</v>
+      </c>
+      <c r="R76" s="675">
+        <v>33277</v>
+      </c>
+      <c r="S76" s="857">
+        <v>33277</v>
+      </c>
     </row>
     <row r="77" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
@@ -5275,6 +7310,21 @@
       <c r="N77" t="s">
         <v>403</v>
       </c>
+      <c r="O77" s="132">
+        <v>33277</v>
+      </c>
+      <c r="P77" s="313">
+        <v>33277</v>
+      </c>
+      <c r="Q77" s="494">
+        <v>33277</v>
+      </c>
+      <c r="R77" s="676">
+        <v>34830</v>
+      </c>
+      <c r="S77" s="858">
+        <v>34830</v>
+      </c>
     </row>
     <row r="78" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
@@ -5312,6 +7362,21 @@
       <c r="N78" t="s">
         <v>403</v>
       </c>
+      <c r="O78" s="133">
+        <v>34830</v>
+      </c>
+      <c r="P78" s="314">
+        <v>34830</v>
+      </c>
+      <c r="Q78" s="495">
+        <v>34830</v>
+      </c>
+      <c r="R78" s="677">
+        <v>28377</v>
+      </c>
+      <c r="S78" s="859">
+        <v>28377</v>
+      </c>
     </row>
     <row r="79" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
@@ -5349,6 +7414,21 @@
       <c r="N79" t="s">
         <v>403</v>
       </c>
+      <c r="O79" s="134">
+        <v>28377</v>
+      </c>
+      <c r="P79" s="315">
+        <v>28377</v>
+      </c>
+      <c r="Q79" s="496">
+        <v>28377</v>
+      </c>
+      <c r="R79" s="678">
+        <v>35441</v>
+      </c>
+      <c r="S79" s="860">
+        <v>35441</v>
+      </c>
     </row>
     <row r="80" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="13" t="s">
@@ -5386,6 +7466,21 @@
       <c r="N80" t="s">
         <v>403</v>
       </c>
+      <c r="O80" s="135">
+        <v>35441</v>
+      </c>
+      <c r="P80" s="316">
+        <v>35441</v>
+      </c>
+      <c r="Q80" s="497">
+        <v>35441</v>
+      </c>
+      <c r="R80" s="679">
+        <v>28234</v>
+      </c>
+      <c r="S80" s="861">
+        <v>28234</v>
+      </c>
     </row>
     <row r="81" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
@@ -5423,6 +7518,21 @@
       <c r="N81" t="s">
         <v>403</v>
       </c>
+      <c r="O81" s="136">
+        <v>28234</v>
+      </c>
+      <c r="P81" s="317">
+        <v>28234</v>
+      </c>
+      <c r="Q81" s="498">
+        <v>28234</v>
+      </c>
+      <c r="R81" s="680">
+        <v>28525</v>
+      </c>
+      <c r="S81" s="862">
+        <v>28525</v>
+      </c>
     </row>
     <row r="82" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
@@ -5462,6 +7572,21 @@
       <c r="N82" t="s">
         <v>403</v>
       </c>
+      <c r="O82" s="137">
+        <v>28525</v>
+      </c>
+      <c r="P82" s="318">
+        <v>28525</v>
+      </c>
+      <c r="Q82" s="499">
+        <v>28525</v>
+      </c>
+      <c r="R82" s="681">
+        <v>29900</v>
+      </c>
+      <c r="S82" s="863">
+        <v>29900</v>
+      </c>
     </row>
     <row r="83" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
@@ -5499,6 +7624,21 @@
       <c r="N83" t="s">
         <v>403</v>
       </c>
+      <c r="O83" s="138">
+        <v>29900</v>
+      </c>
+      <c r="P83" s="319">
+        <v>29900</v>
+      </c>
+      <c r="Q83" s="500">
+        <v>29900</v>
+      </c>
+      <c r="R83" s="682">
+        <v>28377</v>
+      </c>
+      <c r="S83" s="864">
+        <v>28377</v>
+      </c>
     </row>
     <row r="84" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
@@ -5536,6 +7676,21 @@
       <c r="N84" t="s">
         <v>403</v>
       </c>
+      <c r="O84" s="139">
+        <v>28377</v>
+      </c>
+      <c r="P84" s="320">
+        <v>28377</v>
+      </c>
+      <c r="Q84" s="501">
+        <v>28377</v>
+      </c>
+      <c r="R84" s="683">
+        <v>28815</v>
+      </c>
+      <c r="S84" s="865">
+        <v>28815</v>
+      </c>
     </row>
     <row r="85" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
@@ -5573,6 +7728,21 @@
       <c r="N85" t="s">
         <v>403</v>
       </c>
+      <c r="O85" s="140">
+        <v>28815</v>
+      </c>
+      <c r="P85" s="321">
+        <v>28815</v>
+      </c>
+      <c r="Q85" s="502">
+        <v>28815</v>
+      </c>
+      <c r="R85" s="684">
+        <v>28377</v>
+      </c>
+      <c r="S85" s="866">
+        <v>28377</v>
+      </c>
     </row>
     <row r="86" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
@@ -5610,6 +7780,21 @@
       <c r="N86" t="s">
         <v>403</v>
       </c>
+      <c r="O86" s="141">
+        <v>28377</v>
+      </c>
+      <c r="P86" s="322">
+        <v>28377</v>
+      </c>
+      <c r="Q86" s="503">
+        <v>28377</v>
+      </c>
+      <c r="R86" s="685">
+        <v>28377</v>
+      </c>
+      <c r="S86" s="867">
+        <v>28377</v>
+      </c>
     </row>
     <row r="87" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
@@ -5647,6 +7832,21 @@
       <c r="N87" t="s">
         <v>403</v>
       </c>
+      <c r="O87" s="142">
+        <v>28377</v>
+      </c>
+      <c r="P87" s="323">
+        <v>28377</v>
+      </c>
+      <c r="Q87" s="504">
+        <v>28377</v>
+      </c>
+      <c r="R87" s="686">
+        <v>28815</v>
+      </c>
+      <c r="S87" s="868">
+        <v>28815</v>
+      </c>
     </row>
     <row r="88" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
@@ -5684,6 +7884,21 @@
       <c r="N88" t="s">
         <v>403</v>
       </c>
+      <c r="O88" s="143">
+        <v>28815</v>
+      </c>
+      <c r="P88" s="324">
+        <v>28815</v>
+      </c>
+      <c r="Q88" s="505">
+        <v>28815</v>
+      </c>
+      <c r="R88" s="687">
+        <v>30951</v>
+      </c>
+      <c r="S88" s="869">
+        <v>30951</v>
+      </c>
     </row>
     <row r="89" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
@@ -5721,6 +7936,21 @@
       <c r="N89" t="s">
         <v>404</v>
       </c>
+      <c r="O89" s="144">
+        <v>30951</v>
+      </c>
+      <c r="P89" s="325">
+        <v>30951</v>
+      </c>
+      <c r="Q89" s="506">
+        <v>30951</v>
+      </c>
+      <c r="R89" s="688">
+        <v>30225</v>
+      </c>
+      <c r="S89" s="870">
+        <v>30225</v>
+      </c>
     </row>
     <row r="90" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
@@ -5758,6 +7988,21 @@
       <c r="N90" t="s">
         <v>404</v>
       </c>
+      <c r="O90" s="145">
+        <v>30225</v>
+      </c>
+      <c r="P90" s="326">
+        <v>30225</v>
+      </c>
+      <c r="Q90" s="507">
+        <v>30225</v>
+      </c>
+      <c r="R90" s="689">
+        <v>34353</v>
+      </c>
+      <c r="S90" s="871">
+        <v>34353</v>
+      </c>
     </row>
     <row r="91" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
@@ -5795,6 +8040,21 @@
       <c r="N91" t="s">
         <v>404</v>
       </c>
+      <c r="O91" s="146">
+        <v>34353</v>
+      </c>
+      <c r="P91" s="327">
+        <v>34353</v>
+      </c>
+      <c r="Q91" s="508">
+        <v>34353</v>
+      </c>
+      <c r="R91" s="690">
+        <v>29507</v>
+      </c>
+      <c r="S91" s="872">
+        <v>29507</v>
+      </c>
     </row>
     <row r="92" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
@@ -5832,6 +8092,21 @@
       <c r="N92" t="s">
         <v>404</v>
       </c>
+      <c r="O92" s="147">
+        <v>29507</v>
+      </c>
+      <c r="P92" s="328">
+        <v>29507</v>
+      </c>
+      <c r="Q92" s="509">
+        <v>29507</v>
+      </c>
+      <c r="R92" s="691">
+        <v>29997</v>
+      </c>
+      <c r="S92" s="873">
+        <v>29997</v>
+      </c>
     </row>
     <row r="93" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
@@ -5869,6 +8144,21 @@
       <c r="N93" t="s">
         <v>404</v>
       </c>
+      <c r="O93" s="148">
+        <v>29997</v>
+      </c>
+      <c r="P93" s="329">
+        <v>29997</v>
+      </c>
+      <c r="Q93" s="510">
+        <v>29997</v>
+      </c>
+      <c r="R93" s="692">
+        <v>30225</v>
+      </c>
+      <c r="S93" s="874">
+        <v>30225</v>
+      </c>
     </row>
     <row r="94" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
@@ -5906,6 +8196,21 @@
       <c r="N94" t="s">
         <v>404</v>
       </c>
+      <c r="O94" s="149">
+        <v>30225</v>
+      </c>
+      <c r="P94" s="330">
+        <v>30225</v>
+      </c>
+      <c r="Q94" s="511">
+        <v>30225</v>
+      </c>
+      <c r="R94" s="693">
+        <v>32925</v>
+      </c>
+      <c r="S94" s="875">
+        <v>32925</v>
+      </c>
     </row>
     <row r="95" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
@@ -5943,6 +8248,21 @@
       <c r="N95" t="s">
         <v>404</v>
       </c>
+      <c r="O95" s="150">
+        <v>32925</v>
+      </c>
+      <c r="P95" s="331">
+        <v>32925</v>
+      </c>
+      <c r="Q95" s="512">
+        <v>32925</v>
+      </c>
+      <c r="R95" s="694">
+        <v>31919</v>
+      </c>
+      <c r="S95" s="876">
+        <v>31919</v>
+      </c>
     </row>
     <row r="96" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
@@ -5980,6 +8300,21 @@
       <c r="N96" t="s">
         <v>404</v>
       </c>
+      <c r="O96" s="151">
+        <v>31919</v>
+      </c>
+      <c r="P96" s="332">
+        <v>31919</v>
+      </c>
+      <c r="Q96" s="513">
+        <v>31919</v>
+      </c>
+      <c r="R96" s="695">
+        <v>33669</v>
+      </c>
+      <c r="S96" s="877">
+        <v>33669</v>
+      </c>
     </row>
     <row r="97" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
@@ -6017,6 +8352,21 @@
       <c r="N97" t="s">
         <v>404</v>
       </c>
+      <c r="O97" s="152">
+        <v>33669</v>
+      </c>
+      <c r="P97" s="333">
+        <v>33669</v>
+      </c>
+      <c r="Q97" s="514">
+        <v>33669</v>
+      </c>
+      <c r="R97" s="696">
+        <v>29507</v>
+      </c>
+      <c r="S97" s="878">
+        <v>29507</v>
+      </c>
     </row>
     <row r="98" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
@@ -6054,6 +8404,21 @@
       <c r="N98" t="s">
         <v>404</v>
       </c>
+      <c r="O98" s="153">
+        <v>29507</v>
+      </c>
+      <c r="P98" s="334">
+        <v>29507</v>
+      </c>
+      <c r="Q98" s="515">
+        <v>29507</v>
+      </c>
+      <c r="R98" s="697">
+        <v>32660</v>
+      </c>
+      <c r="S98" s="879">
+        <v>32660</v>
+      </c>
     </row>
     <row r="99" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
@@ -6091,6 +8456,21 @@
       <c r="N99" t="s">
         <v>404</v>
       </c>
+      <c r="O99" s="154">
+        <v>32660</v>
+      </c>
+      <c r="P99" s="335">
+        <v>32660</v>
+      </c>
+      <c r="Q99" s="516">
+        <v>32660</v>
+      </c>
+      <c r="R99" s="698">
+        <v>33669</v>
+      </c>
+      <c r="S99" s="880">
+        <v>33669</v>
+      </c>
     </row>
     <row r="100" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="2" t="s">
@@ -6128,6 +8508,21 @@
       <c r="N100" t="s">
         <v>404</v>
       </c>
+      <c r="O100" s="155">
+        <v>33669</v>
+      </c>
+      <c r="P100" s="336">
+        <v>33669</v>
+      </c>
+      <c r="Q100" s="517">
+        <v>33669</v>
+      </c>
+      <c r="R100" s="699">
+        <v>39528</v>
+      </c>
+      <c r="S100" s="881">
+        <v>39528</v>
+      </c>
     </row>
     <row r="101" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
@@ -6165,6 +8560,21 @@
       <c r="N101" t="s">
         <v>404</v>
       </c>
+      <c r="O101" s="156">
+        <v>39528</v>
+      </c>
+      <c r="P101" s="337">
+        <v>39528</v>
+      </c>
+      <c r="Q101" s="518">
+        <v>39528</v>
+      </c>
+      <c r="R101" s="700">
+        <v>35305</v>
+      </c>
+      <c r="S101" s="882">
+        <v>35305</v>
+      </c>
     </row>
     <row r="102" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
@@ -6202,6 +8612,21 @@
       <c r="N102" t="s">
         <v>404</v>
       </c>
+      <c r="O102" s="157">
+        <v>35305</v>
+      </c>
+      <c r="P102" s="338">
+        <v>35305</v>
+      </c>
+      <c r="Q102" s="519">
+        <v>35305</v>
+      </c>
+      <c r="R102" s="701">
+        <v>122160</v>
+      </c>
+      <c r="S102" s="883">
+        <v>122160</v>
+      </c>
     </row>
     <row r="103" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
@@ -6239,6 +8664,21 @@
       <c r="N103" t="s">
         <v>404</v>
       </c>
+      <c r="O103" s="158">
+        <v>122160</v>
+      </c>
+      <c r="P103" s="339">
+        <v>122160</v>
+      </c>
+      <c r="Q103" s="520">
+        <v>122160</v>
+      </c>
+      <c r="R103" s="702">
+        <v>29018</v>
+      </c>
+      <c r="S103" s="884">
+        <v>29018</v>
+      </c>
     </row>
     <row r="104" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
@@ -6276,6 +8716,21 @@
       <c r="N104" t="s">
         <v>404</v>
       </c>
+      <c r="O104" s="159">
+        <v>29018</v>
+      </c>
+      <c r="P104" s="340">
+        <v>29018</v>
+      </c>
+      <c r="Q104" s="521">
+        <v>29018</v>
+      </c>
+      <c r="R104" s="703">
+        <v>36068</v>
+      </c>
+      <c r="S104" s="885">
+        <v>36068</v>
+      </c>
     </row>
     <row r="105" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
@@ -6313,6 +8768,21 @@
       <c r="N105" t="s">
         <v>404</v>
       </c>
+      <c r="O105" s="160">
+        <v>36068</v>
+      </c>
+      <c r="P105" s="341">
+        <v>36068</v>
+      </c>
+      <c r="Q105" s="522">
+        <v>36068</v>
+      </c>
+      <c r="R105" s="704">
+        <v>30225</v>
+      </c>
+      <c r="S105" s="886">
+        <v>30225</v>
+      </c>
     </row>
     <row r="106" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
@@ -6350,6 +8820,21 @@
       <c r="N106" t="s">
         <v>404</v>
       </c>
+      <c r="O106" s="161">
+        <v>30225</v>
+      </c>
+      <c r="P106" s="342">
+        <v>30225</v>
+      </c>
+      <c r="Q106" s="523">
+        <v>30225</v>
+      </c>
+      <c r="R106" s="705">
+        <v>30485</v>
+      </c>
+      <c r="S106" s="887">
+        <v>30485</v>
+      </c>
     </row>
     <row r="107" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="2" t="s">
@@ -6387,6 +8872,21 @@
       <c r="N107" t="s">
         <v>404</v>
       </c>
+      <c r="O107" s="162">
+        <v>30485</v>
+      </c>
+      <c r="P107" s="343">
+        <v>30485</v>
+      </c>
+      <c r="Q107" s="524">
+        <v>30485</v>
+      </c>
+      <c r="R107" s="706">
+        <v>30225</v>
+      </c>
+      <c r="S107" s="888">
+        <v>30225</v>
+      </c>
     </row>
     <row r="108" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="2" t="s">
@@ -6424,6 +8924,21 @@
       <c r="N108" t="s">
         <v>404</v>
       </c>
+      <c r="O108" s="163">
+        <v>30225</v>
+      </c>
+      <c r="P108" s="344">
+        <v>30225</v>
+      </c>
+      <c r="Q108" s="525">
+        <v>30225</v>
+      </c>
+      <c r="R108" s="707">
+        <v>31919</v>
+      </c>
+      <c r="S108" s="889">
+        <v>31919</v>
+      </c>
     </row>
     <row r="109" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
@@ -6461,6 +8976,21 @@
       <c r="N109" t="s">
         <v>404</v>
       </c>
+      <c r="O109" s="164">
+        <v>31919</v>
+      </c>
+      <c r="P109" s="345">
+        <v>31919</v>
+      </c>
+      <c r="Q109" s="526">
+        <v>31919</v>
+      </c>
+      <c r="R109" s="708">
+        <v>30225</v>
+      </c>
+      <c r="S109" s="890">
+        <v>30225</v>
+      </c>
     </row>
     <row r="110" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
@@ -6498,6 +9028,21 @@
       <c r="N110" t="s">
         <v>404</v>
       </c>
+      <c r="O110" s="165">
+        <v>30225</v>
+      </c>
+      <c r="P110" s="346">
+        <v>30225</v>
+      </c>
+      <c r="Q110" s="527">
+        <v>30225</v>
+      </c>
+      <c r="R110" s="709">
+        <v>30225</v>
+      </c>
+      <c r="S110" s="891">
+        <v>30225</v>
+      </c>
     </row>
     <row r="111" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
@@ -6535,6 +9080,21 @@
       <c r="N111" t="s">
         <v>404</v>
       </c>
+      <c r="O111" s="166">
+        <v>30225</v>
+      </c>
+      <c r="P111" s="347">
+        <v>30225</v>
+      </c>
+      <c r="Q111" s="528">
+        <v>30225</v>
+      </c>
+      <c r="R111" s="710">
+        <v>33449</v>
+      </c>
+      <c r="S111" s="892">
+        <v>33449</v>
+      </c>
     </row>
     <row r="112" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
@@ -6572,6 +9132,21 @@
       <c r="N112" t="s">
         <v>404</v>
       </c>
+      <c r="O112" s="167">
+        <v>33449</v>
+      </c>
+      <c r="P112" s="348">
+        <v>33449</v>
+      </c>
+      <c r="Q112" s="529">
+        <v>33449</v>
+      </c>
+      <c r="R112" s="711">
+        <v>33449</v>
+      </c>
+      <c r="S112" s="893">
+        <v>33449</v>
+      </c>
     </row>
     <row r="113" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
@@ -6609,6 +9184,21 @@
       <c r="N113" t="s">
         <v>404</v>
       </c>
+      <c r="O113" s="168">
+        <v>33449</v>
+      </c>
+      <c r="P113" s="349">
+        <v>33449</v>
+      </c>
+      <c r="Q113" s="530">
+        <v>33449</v>
+      </c>
+      <c r="R113" s="712">
+        <v>50457</v>
+      </c>
+      <c r="S113" s="894">
+        <v>50457</v>
+      </c>
     </row>
     <row r="114" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="2" t="s">
@@ -6646,6 +9236,21 @@
       <c r="N114" t="s">
         <v>404</v>
       </c>
+      <c r="O114" s="169">
+        <v>50457</v>
+      </c>
+      <c r="P114" s="350">
+        <v>50457</v>
+      </c>
+      <c r="Q114" s="531">
+        <v>50457</v>
+      </c>
+      <c r="R114" s="713">
+        <v>29507</v>
+      </c>
+      <c r="S114" s="895">
+        <v>29507</v>
+      </c>
     </row>
     <row r="115" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="2" t="s">
@@ -6683,6 +9288,21 @@
       <c r="N115" t="s">
         <v>404</v>
       </c>
+      <c r="O115" s="170">
+        <v>29507</v>
+      </c>
+      <c r="P115" s="351">
+        <v>29507</v>
+      </c>
+      <c r="Q115" s="532">
+        <v>29507</v>
+      </c>
+      <c r="R115" s="714">
+        <v>31919</v>
+      </c>
+      <c r="S115" s="896">
+        <v>31919</v>
+      </c>
     </row>
     <row r="116" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="2" t="s">
@@ -6720,6 +9340,21 @@
       <c r="N116" t="s">
         <v>404</v>
       </c>
+      <c r="O116" s="171">
+        <v>31919</v>
+      </c>
+      <c r="P116" s="352">
+        <v>31919</v>
+      </c>
+      <c r="Q116" s="533">
+        <v>31919</v>
+      </c>
+      <c r="R116" s="715">
+        <v>32428</v>
+      </c>
+      <c r="S116" s="897">
+        <v>32428</v>
+      </c>
     </row>
     <row r="117" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="2" t="s">
@@ -6757,6 +9392,21 @@
       <c r="N117" t="s">
         <v>404</v>
       </c>
+      <c r="O117" s="172">
+        <v>32428</v>
+      </c>
+      <c r="P117" s="353">
+        <v>32428</v>
+      </c>
+      <c r="Q117" s="534">
+        <v>32428</v>
+      </c>
+      <c r="R117" s="716">
+        <v>29018</v>
+      </c>
+      <c r="S117" s="898">
+        <v>29018</v>
+      </c>
     </row>
     <row r="118" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
@@ -6794,6 +9444,21 @@
       <c r="N118" t="s">
         <v>404</v>
       </c>
+      <c r="O118" s="173">
+        <v>29018</v>
+      </c>
+      <c r="P118" s="354">
+        <v>29018</v>
+      </c>
+      <c r="Q118" s="535">
+        <v>29018</v>
+      </c>
+      <c r="R118" s="717">
+        <v>31467</v>
+      </c>
+      <c r="S118" s="899">
+        <v>31467</v>
+      </c>
     </row>
     <row r="119" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
@@ -6831,6 +9496,21 @@
       <c r="N119" t="s">
         <v>404</v>
       </c>
+      <c r="O119" s="174">
+        <v>31467</v>
+      </c>
+      <c r="P119" s="355">
+        <v>31467</v>
+      </c>
+      <c r="Q119" s="536">
+        <v>31467</v>
+      </c>
+      <c r="R119" s="718">
+        <v>30485</v>
+      </c>
+      <c r="S119" s="900">
+        <v>30485</v>
+      </c>
     </row>
     <row r="120" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
@@ -6868,6 +9548,21 @@
       <c r="N120" t="s">
         <v>404</v>
       </c>
+      <c r="O120" s="175">
+        <v>30485</v>
+      </c>
+      <c r="P120" s="356">
+        <v>30485</v>
+      </c>
+      <c r="Q120" s="537">
+        <v>30485</v>
+      </c>
+      <c r="R120" s="719">
+        <v>29018</v>
+      </c>
+      <c r="S120" s="901">
+        <v>29018</v>
+      </c>
     </row>
     <row r="121" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
@@ -6905,6 +9600,21 @@
       <c r="N121" t="s">
         <v>404</v>
       </c>
+      <c r="O121" s="176">
+        <v>29018</v>
+      </c>
+      <c r="P121" s="357">
+        <v>29018</v>
+      </c>
+      <c r="Q121" s="538">
+        <v>29018</v>
+      </c>
+      <c r="R121" s="720">
+        <v>29018</v>
+      </c>
+      <c r="S121" s="902">
+        <v>29018</v>
+      </c>
     </row>
     <row r="122" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
@@ -6942,6 +9652,21 @@
       <c r="N122" t="s">
         <v>404</v>
       </c>
+      <c r="O122" s="177">
+        <v>29018</v>
+      </c>
+      <c r="P122" s="358">
+        <v>29018</v>
+      </c>
+      <c r="Q122" s="539">
+        <v>29018</v>
+      </c>
+      <c r="R122" s="721">
+        <v>34353</v>
+      </c>
+      <c r="S122" s="903">
+        <v>34353</v>
+      </c>
     </row>
     <row r="123" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="2" t="s">
@@ -6979,6 +9704,21 @@
       <c r="N123" t="s">
         <v>404</v>
       </c>
+      <c r="O123" s="178">
+        <v>34353</v>
+      </c>
+      <c r="P123" s="359">
+        <v>34353</v>
+      </c>
+      <c r="Q123" s="540">
+        <v>34353</v>
+      </c>
+      <c r="R123" s="722">
+        <v>29507</v>
+      </c>
+      <c r="S123" s="904">
+        <v>29507</v>
+      </c>
     </row>
     <row r="124" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
@@ -7016,6 +9756,21 @@
       <c r="N124" t="s">
         <v>404</v>
       </c>
+      <c r="O124" s="179">
+        <v>29507</v>
+      </c>
+      <c r="P124" s="360">
+        <v>29507</v>
+      </c>
+      <c r="Q124" s="541">
+        <v>29507</v>
+      </c>
+      <c r="R124" s="723">
+        <v>31919</v>
+      </c>
+      <c r="S124" s="905">
+        <v>31919</v>
+      </c>
     </row>
     <row r="125" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
@@ -7053,6 +9808,21 @@
       <c r="N125" t="s">
         <v>404</v>
       </c>
+      <c r="O125" s="180">
+        <v>31919</v>
+      </c>
+      <c r="P125" s="361">
+        <v>31919</v>
+      </c>
+      <c r="Q125" s="542">
+        <v>31919</v>
+      </c>
+      <c r="R125" s="724">
+        <v>29018</v>
+      </c>
+      <c r="S125" s="906">
+        <v>29018</v>
+      </c>
     </row>
     <row r="126" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="2" t="s">
@@ -7090,6 +9860,21 @@
       <c r="N126" t="s">
         <v>404</v>
       </c>
+      <c r="O126" s="181">
+        <v>29018</v>
+      </c>
+      <c r="P126" s="362">
+        <v>29018</v>
+      </c>
+      <c r="Q126" s="543">
+        <v>29018</v>
+      </c>
+      <c r="R126" s="725">
+        <v>29997</v>
+      </c>
+      <c r="S126" s="907">
+        <v>29997</v>
+      </c>
     </row>
     <row r="127" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="2" t="s">
@@ -7127,6 +9912,21 @@
       <c r="N127" t="s">
         <v>404</v>
       </c>
+      <c r="O127" s="182">
+        <v>29997</v>
+      </c>
+      <c r="P127" s="363">
+        <v>29997</v>
+      </c>
+      <c r="Q127" s="544">
+        <v>29997</v>
+      </c>
+      <c r="R127" s="726">
+        <v>29018</v>
+      </c>
+      <c r="S127" s="908">
+        <v>29018</v>
+      </c>
     </row>
     <row r="128" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="2" t="s">
@@ -7164,6 +9964,21 @@
       <c r="N128" t="s">
         <v>404</v>
       </c>
+      <c r="O128" s="183">
+        <v>29018</v>
+      </c>
+      <c r="P128" s="364">
+        <v>29018</v>
+      </c>
+      <c r="Q128" s="545">
+        <v>29018</v>
+      </c>
+      <c r="R128" s="727">
+        <v>33180</v>
+      </c>
+      <c r="S128" s="909">
+        <v>33180</v>
+      </c>
     </row>
     <row r="129" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="2" t="s">
@@ -7201,6 +10016,21 @@
       <c r="N129" t="s">
         <v>404</v>
       </c>
+      <c r="O129" s="184">
+        <v>33180</v>
+      </c>
+      <c r="P129" s="365">
+        <v>33180</v>
+      </c>
+      <c r="Q129" s="546">
+        <v>33180</v>
+      </c>
+      <c r="R129" s="728">
+        <v>29997</v>
+      </c>
+      <c r="S129" s="910">
+        <v>29997</v>
+      </c>
     </row>
     <row r="130" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="2" t="s">
@@ -7238,6 +10068,21 @@
       <c r="N130" t="s">
         <v>404</v>
       </c>
+      <c r="O130" s="185">
+        <v>29997</v>
+      </c>
+      <c r="P130" s="366">
+        <v>29997</v>
+      </c>
+      <c r="Q130" s="547">
+        <v>29997</v>
+      </c>
+      <c r="R130" s="729">
+        <v>29997</v>
+      </c>
+      <c r="S130" s="911">
+        <v>29997</v>
+      </c>
     </row>
     <row r="131" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="2" t="s">
@@ -7275,6 +10120,21 @@
       <c r="N131" t="s">
         <v>404</v>
       </c>
+      <c r="O131" s="186">
+        <v>29997</v>
+      </c>
+      <c r="P131" s="367">
+        <v>29997</v>
+      </c>
+      <c r="Q131" s="548">
+        <v>29997</v>
+      </c>
+      <c r="R131" s="730">
+        <v>29997</v>
+      </c>
+      <c r="S131" s="912">
+        <v>29997</v>
+      </c>
     </row>
     <row r="132" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="2" t="s">
@@ -7312,6 +10172,21 @@
       <c r="N132" t="s">
         <v>404</v>
       </c>
+      <c r="O132" s="187">
+        <v>29997</v>
+      </c>
+      <c r="P132" s="368">
+        <v>29997</v>
+      </c>
+      <c r="Q132" s="549">
+        <v>29997</v>
+      </c>
+      <c r="R132" s="731">
+        <v>29997</v>
+      </c>
+      <c r="S132" s="913">
+        <v>29997</v>
+      </c>
     </row>
     <row r="133" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="2" t="s">
@@ -7349,6 +10224,21 @@
       <c r="N133" t="s">
         <v>404</v>
       </c>
+      <c r="O133" s="188">
+        <v>29997</v>
+      </c>
+      <c r="P133" s="369">
+        <v>29997</v>
+      </c>
+      <c r="Q133" s="550">
+        <v>29997</v>
+      </c>
+      <c r="R133" s="732">
+        <v>29997</v>
+      </c>
+      <c r="S133" s="914">
+        <v>29997</v>
+      </c>
     </row>
     <row r="134" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="2" t="s">
@@ -7390,6 +10280,21 @@
         <f t="shared" ref="N134" si="4">"микросхема"&amp;M134</f>
         <v>микросхема2</v>
       </c>
+      <c r="O134" s="189">
+        <v>29997</v>
+      </c>
+      <c r="P134" s="370">
+        <v>29997</v>
+      </c>
+      <c r="Q134" s="551">
+        <v>29997</v>
+      </c>
+      <c r="R134" s="733">
+        <v>38880</v>
+      </c>
+      <c r="S134" s="915">
+        <v>38880</v>
+      </c>
     </row>
     <row r="135" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="2" t="s">
@@ -7427,6 +10332,21 @@
       <c r="N135" t="s">
         <v>404</v>
       </c>
+      <c r="O135" s="190">
+        <v>38880</v>
+      </c>
+      <c r="P135" s="371">
+        <v>38880</v>
+      </c>
+      <c r="Q135" s="552">
+        <v>38880</v>
+      </c>
+      <c r="R135" s="734">
+        <v>29018</v>
+      </c>
+      <c r="S135" s="916">
+        <v>29018</v>
+      </c>
     </row>
     <row r="136" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
@@ -7464,6 +10384,21 @@
       <c r="N136" t="s">
         <v>404</v>
       </c>
+      <c r="O136" s="191">
+        <v>29018</v>
+      </c>
+      <c r="P136" s="372">
+        <v>29018</v>
+      </c>
+      <c r="Q136" s="553">
+        <v>29018</v>
+      </c>
+      <c r="R136" s="735">
+        <v>30225</v>
+      </c>
+      <c r="S136" s="917">
+        <v>30225</v>
+      </c>
     </row>
     <row r="137" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="2" t="s">
@@ -7501,6 +10436,21 @@
       <c r="N137" t="s">
         <v>404</v>
       </c>
+      <c r="O137" s="192">
+        <v>30225</v>
+      </c>
+      <c r="P137" s="373">
+        <v>30225</v>
+      </c>
+      <c r="Q137" s="554">
+        <v>30225</v>
+      </c>
+      <c r="R137" s="736">
+        <v>29739</v>
+      </c>
+      <c r="S137" s="918">
+        <v>29739</v>
+      </c>
     </row>
     <row r="138" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="2" t="s">
@@ -7538,6 +10488,21 @@
       <c r="N138" t="s">
         <v>404</v>
       </c>
+      <c r="O138" s="193">
+        <v>29739</v>
+      </c>
+      <c r="P138" s="374">
+        <v>29739</v>
+      </c>
+      <c r="Q138" s="555">
+        <v>29739</v>
+      </c>
+      <c r="R138" s="737">
+        <v>30225</v>
+      </c>
+      <c r="S138" s="919">
+        <v>30225</v>
+      </c>
     </row>
     <row r="139" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="2" t="s">
@@ -7575,6 +10540,21 @@
       <c r="N139" t="s">
         <v>404</v>
       </c>
+      <c r="O139" s="194">
+        <v>30225</v>
+      </c>
+      <c r="P139" s="375">
+        <v>30225</v>
+      </c>
+      <c r="Q139" s="556">
+        <v>30225</v>
+      </c>
+      <c r="R139" s="738">
+        <v>29507</v>
+      </c>
+      <c r="S139" s="920">
+        <v>29507</v>
+      </c>
     </row>
     <row r="140" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="2" t="s">
@@ -7612,6 +10592,21 @@
       <c r="N140" t="s">
         <v>404</v>
       </c>
+      <c r="O140" s="195">
+        <v>29507</v>
+      </c>
+      <c r="P140" s="376">
+        <v>29507</v>
+      </c>
+      <c r="Q140" s="557">
+        <v>29507</v>
+      </c>
+      <c r="R140" s="739">
+        <v>31208</v>
+      </c>
+      <c r="S140" s="921">
+        <v>31208</v>
+      </c>
     </row>
     <row r="141" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="2" t="s">
@@ -7649,6 +10644,21 @@
       <c r="N141" t="s">
         <v>404</v>
       </c>
+      <c r="O141" s="196">
+        <v>31208</v>
+      </c>
+      <c r="P141" s="377">
+        <v>31208</v>
+      </c>
+      <c r="Q141" s="558">
+        <v>31208</v>
+      </c>
+      <c r="R141" s="740">
+        <v>29265</v>
+      </c>
+      <c r="S141" s="922">
+        <v>29265</v>
+      </c>
     </row>
     <row r="142" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="2" t="s">
@@ -7686,6 +10696,21 @@
       <c r="N142" t="s">
         <v>404</v>
       </c>
+      <c r="O142" s="197">
+        <v>29265</v>
+      </c>
+      <c r="P142" s="378">
+        <v>29265</v>
+      </c>
+      <c r="Q142" s="559">
+        <v>29265</v>
+      </c>
+      <c r="R142" s="741">
+        <v>30225</v>
+      </c>
+      <c r="S142" s="923">
+        <v>30225</v>
+      </c>
     </row>
     <row r="143" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="2" t="s">
@@ -7723,6 +10748,21 @@
       <c r="N143" t="s">
         <v>404</v>
       </c>
+      <c r="O143" s="198">
+        <v>30225</v>
+      </c>
+      <c r="P143" s="379">
+        <v>30225</v>
+      </c>
+      <c r="Q143" s="560">
+        <v>30225</v>
+      </c>
+      <c r="R143" s="742">
+        <v>31919</v>
+      </c>
+      <c r="S143" s="924">
+        <v>31919</v>
+      </c>
     </row>
     <row r="144" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="2" t="s">
@@ -7760,6 +10800,21 @@
       <c r="N144" t="s">
         <v>404</v>
       </c>
+      <c r="O144" s="199">
+        <v>31919</v>
+      </c>
+      <c r="P144" s="380">
+        <v>31919</v>
+      </c>
+      <c r="Q144" s="561">
+        <v>31919</v>
+      </c>
+      <c r="R144" s="743">
+        <v>31919</v>
+      </c>
+      <c r="S144" s="925">
+        <v>31919</v>
+      </c>
     </row>
     <row r="145" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="2" t="s">
@@ -7799,6 +10854,21 @@
       <c r="N145" t="s">
         <v>404</v>
       </c>
+      <c r="O145" s="200">
+        <v>31919</v>
+      </c>
+      <c r="P145" s="381">
+        <v>31919</v>
+      </c>
+      <c r="Q145" s="562">
+        <v>31919</v>
+      </c>
+      <c r="R145" s="744">
+        <v>29265</v>
+      </c>
+      <c r="S145" s="926">
+        <v>29265</v>
+      </c>
     </row>
     <row r="146" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="2" t="s">
@@ -7836,6 +10906,21 @@
       <c r="N146" t="s">
         <v>404</v>
       </c>
+      <c r="O146" s="201">
+        <v>29265</v>
+      </c>
+      <c r="P146" s="382">
+        <v>29265</v>
+      </c>
+      <c r="Q146" s="563">
+        <v>29265</v>
+      </c>
+      <c r="R146" s="745">
+        <v>29997</v>
+      </c>
+      <c r="S146" s="927">
+        <v>29997</v>
+      </c>
     </row>
     <row r="147" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B147" s="2" t="s">
@@ -7873,6 +10958,21 @@
       <c r="N147" t="s">
         <v>404</v>
       </c>
+      <c r="O147" s="202">
+        <v>29997</v>
+      </c>
+      <c r="P147" s="383">
+        <v>29997</v>
+      </c>
+      <c r="Q147" s="564">
+        <v>29997</v>
+      </c>
+      <c r="R147" s="746">
+        <v>29997</v>
+      </c>
+      <c r="S147" s="928">
+        <v>29997</v>
+      </c>
     </row>
     <row r="148" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="2" t="s">
@@ -7909,6 +11009,21 @@
       <c r="N148" t="s">
         <v>404</v>
       </c>
+      <c r="O148" s="203">
+        <v>29997</v>
+      </c>
+      <c r="P148" s="384">
+        <v>29997</v>
+      </c>
+      <c r="Q148" s="565">
+        <v>29997</v>
+      </c>
+      <c r="R148" s="747">
+        <v>34038</v>
+      </c>
+      <c r="S148" s="929">
+        <v>34038</v>
+      </c>
     </row>
     <row r="149" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9" t="s">
@@ -7946,6 +11061,21 @@
       <c r="N149" t="s">
         <v>405</v>
       </c>
+      <c r="O149" s="204">
+        <v>34038</v>
+      </c>
+      <c r="P149" s="385">
+        <v>34038</v>
+      </c>
+      <c r="Q149" s="566">
+        <v>34038</v>
+      </c>
+      <c r="R149" s="748">
+        <v>38779</v>
+      </c>
+      <c r="S149" s="930">
+        <v>38779</v>
+      </c>
     </row>
     <row r="150" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="2" t="s">
@@ -7983,6 +11113,21 @@
       <c r="N150" t="s">
         <v>405</v>
       </c>
+      <c r="O150" s="205">
+        <v>38779</v>
+      </c>
+      <c r="P150" s="386">
+        <v>38779</v>
+      </c>
+      <c r="Q150" s="567">
+        <v>38779</v>
+      </c>
+      <c r="R150" s="749">
+        <v>29565</v>
+      </c>
+      <c r="S150" s="931">
+        <v>29565</v>
+      </c>
     </row>
     <row r="151" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="2" t="s">
@@ -8020,6 +11165,21 @@
       <c r="N151" t="s">
         <v>405</v>
       </c>
+      <c r="O151" s="206">
+        <v>29565</v>
+      </c>
+      <c r="P151" s="387">
+        <v>29565</v>
+      </c>
+      <c r="Q151" s="568">
+        <v>29565</v>
+      </c>
+      <c r="R151" s="750">
+        <v>29565</v>
+      </c>
+      <c r="S151" s="932">
+        <v>29565</v>
+      </c>
     </row>
     <row r="152" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="2" t="s">
@@ -8057,6 +11217,21 @@
       <c r="N152" t="s">
         <v>405</v>
       </c>
+      <c r="O152" s="207">
+        <v>29565</v>
+      </c>
+      <c r="P152" s="388">
+        <v>29565</v>
+      </c>
+      <c r="Q152" s="569">
+        <v>29565</v>
+      </c>
+      <c r="R152" s="751">
+        <v>31801</v>
+      </c>
+      <c r="S152" s="933">
+        <v>31801</v>
+      </c>
     </row>
     <row r="153" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="2" t="s">
@@ -8094,6 +11269,21 @@
       <c r="N153" t="s">
         <v>405</v>
       </c>
+      <c r="O153" s="208">
+        <v>31801</v>
+      </c>
+      <c r="P153" s="389">
+        <v>31801</v>
+      </c>
+      <c r="Q153" s="570">
+        <v>31801</v>
+      </c>
+      <c r="R153" s="752">
+        <v>32850</v>
+      </c>
+      <c r="S153" s="934">
+        <v>32850</v>
+      </c>
     </row>
     <row r="154" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="2" t="s">
@@ -8131,6 +11321,21 @@
       <c r="N154" t="s">
         <v>405</v>
       </c>
+      <c r="O154" s="209">
+        <v>32850</v>
+      </c>
+      <c r="P154" s="390">
+        <v>32850</v>
+      </c>
+      <c r="Q154" s="571">
+        <v>32850</v>
+      </c>
+      <c r="R154" s="753">
+        <v>31801</v>
+      </c>
+      <c r="S154" s="935">
+        <v>31801</v>
+      </c>
     </row>
     <row r="155" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="2" t="s">
@@ -8168,6 +11373,21 @@
       <c r="N155" t="s">
         <v>405</v>
       </c>
+      <c r="O155" s="210">
+        <v>31801</v>
+      </c>
+      <c r="P155" s="391">
+        <v>31801</v>
+      </c>
+      <c r="Q155" s="572">
+        <v>31801</v>
+      </c>
+      <c r="R155" s="754">
+        <v>29565</v>
+      </c>
+      <c r="S155" s="936">
+        <v>29565</v>
+      </c>
     </row>
     <row r="156" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="2" t="s">
@@ -8205,6 +11425,21 @@
       <c r="N156" t="s">
         <v>405</v>
       </c>
+      <c r="O156" s="211">
+        <v>29565</v>
+      </c>
+      <c r="P156" s="392">
+        <v>29565</v>
+      </c>
+      <c r="Q156" s="573">
+        <v>29565</v>
+      </c>
+      <c r="R156" s="755">
+        <v>28710</v>
+      </c>
+      <c r="S156" s="937">
+        <v>28710</v>
+      </c>
     </row>
     <row r="157" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="2" t="s">
@@ -8242,6 +11477,21 @@
       <c r="N157" t="s">
         <v>405</v>
       </c>
+      <c r="O157" s="212">
+        <v>28710</v>
+      </c>
+      <c r="P157" s="393">
+        <v>28710</v>
+      </c>
+      <c r="Q157" s="574">
+        <v>28710</v>
+      </c>
+      <c r="R157" s="756">
+        <v>28147</v>
+      </c>
+      <c r="S157" s="938">
+        <v>28147</v>
+      </c>
     </row>
     <row r="158" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="2" t="s">
@@ -8278,6 +11528,21 @@
       <c r="L158" s="12"/>
       <c r="N158" t="s">
         <v>405</v>
+      </c>
+      <c r="O158" s="213">
+        <v>28147</v>
+      </c>
+      <c r="P158" s="394">
+        <v>28147</v>
+      </c>
+      <c r="Q158" s="575">
+        <v>28147</v>
+      </c>
+      <c r="R158" s="757">
+        <v>30135</v>
+      </c>
+      <c r="S158" s="939">
+        <v>30135</v>
       </c>
     </row>
     <row r="159" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8308,6 +11573,21 @@
       <c r="N159" t="s">
         <v>405</v>
       </c>
+      <c r="O159" s="214">
+        <v>30135</v>
+      </c>
+      <c r="P159" s="395">
+        <v>30135</v>
+      </c>
+      <c r="Q159" s="576">
+        <v>30135</v>
+      </c>
+      <c r="R159" s="758">
+        <v>35765</v>
+      </c>
+      <c r="S159" s="940">
+        <v>35765</v>
+      </c>
     </row>
     <row r="160" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="17" t="s">
@@ -8337,6 +11617,21 @@
       <c r="N160" t="s">
         <v>405</v>
       </c>
+      <c r="O160" s="215">
+        <v>35765</v>
+      </c>
+      <c r="P160" s="396">
+        <v>35765</v>
+      </c>
+      <c r="Q160" s="577">
+        <v>35765</v>
+      </c>
+      <c r="R160" s="759">
+        <v>33843</v>
+      </c>
+      <c r="S160" s="941">
+        <v>33843</v>
+      </c>
     </row>
     <row r="161" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B161" s="2" t="s">
@@ -8374,6 +11669,21 @@
       <c r="N161" t="s">
         <v>405</v>
       </c>
+      <c r="O161" s="216">
+        <v>33843</v>
+      </c>
+      <c r="P161" s="397">
+        <v>33843</v>
+      </c>
+      <c r="Q161" s="578">
+        <v>33843</v>
+      </c>
+      <c r="R161" s="760">
+        <v>29279</v>
+      </c>
+      <c r="S161" s="942">
+        <v>29279</v>
+      </c>
     </row>
     <row r="162" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="2" t="s">
@@ -8410,6 +11720,21 @@
       <c r="L162" s="12"/>
       <c r="N162" t="s">
         <v>405</v>
+      </c>
+      <c r="O162" s="217">
+        <v>29279</v>
+      </c>
+      <c r="P162" s="398">
+        <v>29279</v>
+      </c>
+      <c r="Q162" s="579">
+        <v>29279</v>
+      </c>
+      <c r="R162" s="761">
+        <v>52836</v>
+      </c>
+      <c r="S162" s="943">
+        <v>52836</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8451,6 +11776,21 @@
       <c r="N163" t="s">
         <v>405</v>
       </c>
+      <c r="O163" s="218">
+        <v>52836</v>
+      </c>
+      <c r="P163" s="399">
+        <v>52836</v>
+      </c>
+      <c r="Q163" s="580">
+        <v>52836</v>
+      </c>
+      <c r="R163" s="762">
+        <v>28424</v>
+      </c>
+      <c r="S163" s="944">
+        <v>28424</v>
+      </c>
     </row>
     <row r="164" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="31"/>
@@ -8489,6 +11829,21 @@
       <c r="N164" t="s">
         <v>406</v>
       </c>
+      <c r="O164" s="219">
+        <v>28424</v>
+      </c>
+      <c r="P164" s="400">
+        <v>28424</v>
+      </c>
+      <c r="Q164" s="581">
+        <v>28424</v>
+      </c>
+      <c r="R164" s="763">
+        <v>32946</v>
+      </c>
+      <c r="S164" s="945">
+        <v>32946</v>
+      </c>
     </row>
     <row r="165" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="31"/>
@@ -8529,6 +11884,21 @@
       <c r="N165" t="s">
         <v>406</v>
       </c>
+      <c r="O165" s="220">
+        <v>32946</v>
+      </c>
+      <c r="P165" s="401">
+        <v>32946</v>
+      </c>
+      <c r="Q165" s="582">
+        <v>32946</v>
+      </c>
+      <c r="R165" s="764">
+        <v>32946</v>
+      </c>
+      <c r="S165" s="946">
+        <v>32946</v>
+      </c>
     </row>
     <row r="166" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="31"/>
@@ -8568,6 +11938,21 @@
       </c>
       <c r="N166" t="s">
         <v>406</v>
+      </c>
+      <c r="O166" s="221">
+        <v>32946</v>
+      </c>
+      <c r="P166" s="402">
+        <v>32946</v>
+      </c>
+      <c r="Q166" s="583">
+        <v>32946</v>
+      </c>
+      <c r="R166" s="765">
+        <v>32946</v>
+      </c>
+      <c r="S166" s="947">
+        <v>32946</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8596,6 +11981,21 @@
       <c r="J167" s="29"/>
       <c r="K167" s="28"/>
       <c r="L167" s="28"/>
+      <c r="O167" s="222">
+        <v>32946</v>
+      </c>
+      <c r="P167" s="403">
+        <v>32946</v>
+      </c>
+      <c r="Q167" s="584">
+        <v>32946</v>
+      </c>
+      <c r="R167" s="766">
+        <v>34578</v>
+      </c>
+      <c r="S167" s="948">
+        <v>34578</v>
+      </c>
     </row>
     <row r="168" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="31"/>
@@ -8623,6 +12023,21 @@
       <c r="J168" s="29"/>
       <c r="K168" s="28"/>
       <c r="L168" s="28"/>
+      <c r="O168" s="223">
+        <v>34578</v>
+      </c>
+      <c r="P168" s="404">
+        <v>34578</v>
+      </c>
+      <c r="Q168" s="585">
+        <v>34578</v>
+      </c>
+      <c r="R168" s="767">
+        <v>33542</v>
+      </c>
+      <c r="S168" s="949">
+        <v>33542</v>
+      </c>
     </row>
     <row r="169" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="31"/>
@@ -8663,6 +12078,21 @@
       <c r="N169" t="s">
         <v>406</v>
       </c>
+      <c r="O169" s="224">
+        <v>33542</v>
+      </c>
+      <c r="P169" s="405">
+        <v>33542</v>
+      </c>
+      <c r="Q169" s="586">
+        <v>33542</v>
+      </c>
+      <c r="R169" s="768">
+        <v>32946</v>
+      </c>
+      <c r="S169" s="950">
+        <v>32946</v>
+      </c>
     </row>
     <row r="170" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B170" s="2" t="s">
@@ -8699,6 +12129,21 @@
       <c r="L170" s="12"/>
       <c r="N170" t="s">
         <v>406</v>
+      </c>
+      <c r="O170" s="225">
+        <v>32946</v>
+      </c>
+      <c r="P170" s="406">
+        <v>32946</v>
+      </c>
+      <c r="Q170" s="587">
+        <v>32946</v>
+      </c>
+      <c r="R170" s="769">
+        <v>32527</v>
+      </c>
+      <c r="S170" s="951">
+        <v>32527</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8734,6 +12179,21 @@
       <c r="N171" t="s">
         <v>405</v>
       </c>
+      <c r="O171" s="226">
+        <v>32527</v>
+      </c>
+      <c r="P171" s="407">
+        <v>32527</v>
+      </c>
+      <c r="Q171" s="588">
+        <v>32527</v>
+      </c>
+      <c r="R171" s="770">
+        <v>29565</v>
+      </c>
+      <c r="S171" s="952">
+        <v>29565</v>
+      </c>
     </row>
     <row r="172" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="2" t="s">
@@ -8771,6 +12231,21 @@
       <c r="N172" t="s">
         <v>405</v>
       </c>
+      <c r="O172" s="227">
+        <v>29565</v>
+      </c>
+      <c r="P172" s="408">
+        <v>29565</v>
+      </c>
+      <c r="Q172" s="589">
+        <v>29565</v>
+      </c>
+      <c r="R172" s="771">
+        <v>29565</v>
+      </c>
+      <c r="S172" s="953">
+        <v>29565</v>
+      </c>
     </row>
     <row r="173" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="2" t="s">
@@ -8808,6 +12283,21 @@
       <c r="N173" t="s">
         <v>405</v>
       </c>
+      <c r="O173" s="228">
+        <v>29565</v>
+      </c>
+      <c r="P173" s="409">
+        <v>29565</v>
+      </c>
+      <c r="Q173" s="590">
+        <v>29565</v>
+      </c>
+      <c r="R173" s="772">
+        <v>33843</v>
+      </c>
+      <c r="S173" s="954">
+        <v>33843</v>
+      </c>
     </row>
     <row r="174" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="2" t="s">
@@ -8845,6 +12335,21 @@
       <c r="N174" t="s">
         <v>405</v>
       </c>
+      <c r="O174" s="229">
+        <v>33843</v>
+      </c>
+      <c r="P174" s="410">
+        <v>33843</v>
+      </c>
+      <c r="Q174" s="591">
+        <v>33843</v>
+      </c>
+      <c r="R174" s="773">
+        <v>32130</v>
+      </c>
+      <c r="S174" s="955">
+        <v>32130</v>
+      </c>
     </row>
     <row r="175" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B175" s="21" t="s">
@@ -8886,6 +12391,21 @@
         <f>"микросхема"&amp;M175</f>
         <v>микросхема3</v>
       </c>
+      <c r="O175" s="230">
+        <v>32130</v>
+      </c>
+      <c r="P175" s="411">
+        <v>32130</v>
+      </c>
+      <c r="Q175" s="592">
+        <v>32130</v>
+      </c>
+      <c r="R175" s="774">
+        <v>33900</v>
+      </c>
+      <c r="S175" s="956">
+        <v>33900</v>
+      </c>
     </row>
     <row r="176" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="22" t="s">
@@ -8927,6 +12447,21 @@
         <f>"микросхема"&amp;M176</f>
         <v>микросхема3</v>
       </c>
+      <c r="O176" s="231">
+        <v>33900</v>
+      </c>
+      <c r="P176" s="412">
+        <v>33900</v>
+      </c>
+      <c r="Q176" s="593">
+        <v>33900</v>
+      </c>
+      <c r="R176" s="775">
+        <v>33332</v>
+      </c>
+      <c r="S176" s="957">
+        <v>33332</v>
+      </c>
     </row>
     <row r="177" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="22" t="s">
@@ -8967,6 +12502,21 @@
       <c r="N177" t="str">
         <f>"микросхема"&amp;M177</f>
         <v>микросхема3</v>
+      </c>
+      <c r="O177" s="232">
+        <v>33332</v>
+      </c>
+      <c r="P177" s="413">
+        <v>33332</v>
+      </c>
+      <c r="Q177" s="594">
+        <v>33332</v>
+      </c>
+      <c r="R177" s="776">
+        <v>33147</v>
+      </c>
+      <c r="S177" s="958">
+        <v>33147</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9005,6 +12555,21 @@
       <c r="L178" s="45"/>
       <c r="N178" t="s">
         <v>406</v>
+      </c>
+      <c r="O178" s="233">
+        <v>33147</v>
+      </c>
+      <c r="P178" s="414">
+        <v>33147</v>
+      </c>
+      <c r="Q178" s="595">
+        <v>33147</v>
+      </c>
+      <c r="R178" s="777">
+        <v>32427</v>
+      </c>
+      <c r="S178" s="959">
+        <v>32427</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9023,6 +12588,15 @@
       <c r="N179" t="s">
         <v>406</v>
       </c>
+      <c r="O179" s="234">
+        <v>32427</v>
+      </c>
+      <c r="P179" s="415">
+        <v>32427</v>
+      </c>
+      <c r="Q179" s="596">
+        <v>32427</v>
+      </c>
     </row>
     <row r="180" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B180" s="22" t="s">
@@ -9059,6 +12633,12 @@
       <c r="L180" s="12"/>
       <c r="N180" t="s">
         <v>406</v>
+      </c>
+      <c r="R180" s="778">
+        <v>32427</v>
+      </c>
+      <c r="S180" s="960">
+        <v>32427</v>
       </c>
     </row>
     <row r="181" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9089,6 +12669,21 @@
       <c r="N181" t="s">
         <v>406</v>
       </c>
+      <c r="O181" s="235">
+        <v>32427</v>
+      </c>
+      <c r="P181" s="416">
+        <v>32427</v>
+      </c>
+      <c r="Q181" s="597">
+        <v>32427</v>
+      </c>
+      <c r="R181" s="779">
+        <v>33466</v>
+      </c>
+      <c r="S181" s="961">
+        <v>33466</v>
+      </c>
     </row>
     <row r="182" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B182" s="25" t="s">
@@ -9122,6 +12717,21 @@
         <f>"микросхема"&amp;M182</f>
         <v>микросхема3</v>
       </c>
+      <c r="O182" s="236">
+        <v>33466</v>
+      </c>
+      <c r="P182" s="417">
+        <v>33466</v>
+      </c>
+      <c r="Q182" s="598">
+        <v>33466</v>
+      </c>
+      <c r="R182" s="780">
+        <v>36531</v>
+      </c>
+      <c r="S182" s="962">
+        <v>36531</v>
+      </c>
     </row>
     <row r="183" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="22" t="s">
@@ -9159,6 +12769,21 @@
       <c r="N183" t="s">
         <v>406</v>
       </c>
+      <c r="O183" s="237">
+        <v>36531</v>
+      </c>
+      <c r="P183" s="418">
+        <v>36531</v>
+      </c>
+      <c r="Q183" s="599">
+        <v>36531</v>
+      </c>
+      <c r="R183" s="781">
+        <v>36957</v>
+      </c>
+      <c r="S183" s="963">
+        <v>36957</v>
+      </c>
     </row>
     <row r="184" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B184" s="22" t="s">
@@ -9195,6 +12820,21 @@
       <c r="L184" s="12"/>
       <c r="N184" t="s">
         <v>406</v>
+      </c>
+      <c r="O184" s="238">
+        <v>36957</v>
+      </c>
+      <c r="P184" s="419">
+        <v>36957</v>
+      </c>
+      <c r="Q184" s="600">
+        <v>36957</v>
+      </c>
+      <c r="R184" s="782">
+        <v>32225</v>
+      </c>
+      <c r="S184" s="964">
+        <v>32225</v>
       </c>
     </row>
   </sheetData>
